--- a/tests/tests8/ЛМ 0.5.xlsx
+++ b/tests/tests8/ЛМ 0.5.xlsx
@@ -579,7 +579,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.0059828000000266</v>
+        <v>0.005530000000007362</v>
       </c>
       <c r="U2">
         <v>29</v>
@@ -647,7 +647,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.004899399999999332</v>
+        <v>0.005081599999996911</v>
       </c>
       <c r="U3">
         <v>27</v>
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.004134400000054939</v>
+        <v>0.004420899999999506</v>
       </c>
       <c r="U4">
         <v>23</v>
@@ -783,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.005787499999996726</v>
+        <v>0.00660299999999836</v>
       </c>
       <c r="U5">
         <v>29</v>
@@ -851,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004397600000004331</v>
+        <v>0.005127000000001658</v>
       </c>
       <c r="U6">
         <v>23</v>
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.004717099999993479</v>
+        <v>0.004559600000007435</v>
       </c>
       <c r="U7">
         <v>24</v>
@@ -987,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.003758100000027298</v>
+        <v>0.003822400000004222</v>
       </c>
       <c r="U8">
         <v>19</v>
@@ -1055,7 +1055,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.004358899999999721</v>
+        <v>0.003790600000002087</v>
       </c>
       <c r="U9">
         <v>20</v>
@@ -1123,7 +1123,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.005181700000036926</v>
+        <v>0.005342999999996323</v>
       </c>
       <c r="U10">
         <v>29</v>
@@ -1191,7 +1191,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.00282359999999926</v>
+        <v>0.002804099999991649</v>
       </c>
       <c r="U11">
         <v>14</v>
@@ -1259,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.004522599999972954</v>
+        <v>0.004888499999992746</v>
       </c>
       <c r="U12">
         <v>24</v>
@@ -1327,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.004186899999979232</v>
+        <v>0.004440999999999917</v>
       </c>
       <c r="U13">
         <v>23</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.005917799999963336</v>
+        <v>0.004744999999999777</v>
       </c>
       <c r="U14">
         <v>24</v>
@@ -1463,7 +1463,7 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.00523049999998193</v>
+        <v>0.005721300000004703</v>
       </c>
       <c r="U15">
         <v>29</v>
@@ -1531,7 +1531,7 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.005520100000012462</v>
+        <v>0.006086199999998598</v>
       </c>
       <c r="U16">
         <v>29</v>
@@ -1599,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.006188600000029965</v>
+        <v>0.005456300000005854</v>
       </c>
       <c r="U17">
         <v>29</v>
@@ -1667,7 +1667,7 @@
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.004363699999998971</v>
+        <v>0.004519700000003013</v>
       </c>
       <c r="U18">
         <v>24</v>
@@ -1735,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.004386199999999008</v>
+        <v>0.00514909999999702</v>
       </c>
       <c r="U19">
         <v>24</v>
@@ -1803,7 +1803,7 @@
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.006170199999985471</v>
+        <v>0.005656599999994683</v>
       </c>
       <c r="U20">
         <v>29</v>
@@ -1871,7 +1871,7 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.003920999999991182</v>
+        <v>0.004048599999990188</v>
       </c>
       <c r="U21">
         <v>21</v>
@@ -1939,7 +1939,7 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.006564500000024509</v>
+        <v>0.006178300000001968</v>
       </c>
       <c r="U22">
         <v>30</v>
@@ -2007,7 +2007,7 @@
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.003225400000019363</v>
+        <v>0.003927999999987719</v>
       </c>
       <c r="U23">
         <v>17</v>
@@ -2075,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.004474899999991067</v>
+        <v>0.004551199999994537</v>
       </c>
       <c r="U24">
         <v>24</v>
@@ -2143,7 +2143,7 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.005983300000025338</v>
+        <v>0.005440899999996418</v>
       </c>
       <c r="U25">
         <v>29</v>
@@ -2211,7 +2211,7 @@
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.00355250000001206</v>
+        <v>0.004125700000003008</v>
       </c>
       <c r="U26">
         <v>18</v>
@@ -2279,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.003292200000032608</v>
+        <v>0.003418199999998706</v>
       </c>
       <c r="U27">
         <v>16</v>
@@ -2347,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.006442200000037701</v>
+        <v>0.005136500000006095</v>
       </c>
       <c r="U28">
         <v>27</v>
@@ -2415,7 +2415,7 @@
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.005490499999950771</v>
+        <v>0.00594949999999983</v>
       </c>
       <c r="U29">
         <v>28</v>
@@ -2483,7 +2483,7 @@
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.006077199999992899</v>
+        <v>0.006534999999999513</v>
       </c>
       <c r="U30">
         <v>31</v>
@@ -2551,7 +2551,7 @@
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.005611899999962588</v>
+        <v>0.005885199999994484</v>
       </c>
       <c r="U31">
         <v>31</v>
@@ -2619,7 +2619,7 @@
         <v>22</v>
       </c>
       <c r="T32">
-        <v>0.005691200000001118</v>
+        <v>0.005503199999992603</v>
       </c>
       <c r="U32">
         <v>29</v>
@@ -2687,7 +2687,7 @@
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.004692400000010366</v>
+        <v>0.005615399999996384</v>
       </c>
       <c r="U33">
         <v>27</v>
@@ -2755,7 +2755,7 @@
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.003191000000015265</v>
+        <v>0.003415099999998006</v>
       </c>
       <c r="U34">
         <v>15</v>
@@ -2823,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.005399399999987509</v>
+        <v>0.00444870000001174</v>
       </c>
       <c r="U35">
         <v>24</v>
@@ -2891,7 +2891,7 @@
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.002803999999969164</v>
+        <v>0.002782699999997362</v>
       </c>
       <c r="U36">
         <v>14</v>
@@ -2959,7 +2959,7 @@
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.005214299999977356</v>
+        <v>0.004997700000004102</v>
       </c>
       <c r="U37">
         <v>27</v>
@@ -3027,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="T38">
-        <v>0.005569300000047406</v>
+        <v>0.005943599999994831</v>
       </c>
       <c r="U38">
         <v>31</v>
@@ -3095,7 +3095,7 @@
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.003923199999974258</v>
+        <v>0.004064499999998361</v>
       </c>
       <c r="U39">
         <v>20</v>
@@ -3163,7 +3163,7 @@
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.005394499999965774</v>
+        <v>0.00617720000001043</v>
       </c>
       <c r="U40">
         <v>26</v>
@@ -3231,7 +3231,7 @@
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.005177399999979571</v>
+        <v>0.005642899999998008</v>
       </c>
       <c r="U41">
         <v>29</v>
@@ -3299,7 +3299,7 @@
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.004070000000012897</v>
+        <v>0.004141399999994633</v>
       </c>
       <c r="U42">
         <v>22</v>
@@ -3367,7 +3367,7 @@
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.004155599999990045</v>
+        <v>0.005167099999994207</v>
       </c>
       <c r="U43">
         <v>23</v>
@@ -3435,7 +3435,7 @@
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.004641100000014831</v>
+        <v>0.00482730000000231</v>
       </c>
       <c r="U44">
         <v>26</v>
@@ -3503,7 +3503,7 @@
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.004789500000015323</v>
+        <v>0.004103100000008908</v>
       </c>
       <c r="U45">
         <v>21</v>
@@ -3571,7 +3571,7 @@
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.004753800000003139</v>
+        <v>0.00669820000000243</v>
       </c>
       <c r="U46">
         <v>27</v>
@@ -3639,7 +3639,7 @@
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.00440320000001293</v>
+        <v>0.004480000000000928</v>
       </c>
       <c r="U47">
         <v>23</v>
@@ -3707,7 +3707,7 @@
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.005757899999991878</v>
+        <v>0.005832900000001473</v>
       </c>
       <c r="U48">
         <v>31</v>
@@ -3775,7 +3775,7 @@
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.003864399999997659</v>
+        <v>0.0040395999999987</v>
       </c>
       <c r="U49">
         <v>21</v>
@@ -3843,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="T50">
-        <v>0.002863399999966987</v>
+        <v>0.001999099999991927</v>
       </c>
       <c r="U50">
         <v>9</v>
@@ -3911,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.004152599999997619</v>
+        <v>0.004717900000002828</v>
       </c>
       <c r="U51">
         <v>23</v>
@@ -3979,7 +3979,7 @@
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.00575259999999389</v>
+        <v>0.005699300000003404</v>
       </c>
       <c r="U52">
         <v>27</v>
@@ -4047,7 +4047,7 @@
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.005287800000019161</v>
+        <v>0.004938000000009879</v>
       </c>
       <c r="U53">
         <v>27</v>
@@ -4115,7 +4115,7 @@
         <v>22</v>
       </c>
       <c r="T54">
-        <v>0.004327600000010534</v>
+        <v>0.004497900000004051</v>
       </c>
       <c r="U54">
         <v>24</v>
@@ -4183,7 +4183,7 @@
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.004637399999978697</v>
+        <v>0.004294299999997975</v>
       </c>
       <c r="U55">
         <v>17</v>
@@ -4251,7 +4251,7 @@
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.004746500000010201</v>
+        <v>0.005123999999995021</v>
       </c>
       <c r="U56">
         <v>27</v>
@@ -4319,7 +4319,7 @@
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.003937000000007629</v>
+        <v>0.004022000000006187</v>
       </c>
       <c r="U57">
         <v>21</v>
@@ -4387,7 +4387,7 @@
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.004869799999994484</v>
+        <v>0.00470750000000919</v>
       </c>
       <c r="U58">
         <v>24</v>
@@ -4455,7 +4455,7 @@
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.003694999999993342</v>
+        <v>0.003947099999990655</v>
       </c>
       <c r="U59">
         <v>20</v>
@@ -4523,7 +4523,7 @@
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.005708699999956934</v>
+        <v>0.005484300000006215</v>
       </c>
       <c r="U60">
         <v>26</v>
@@ -4591,7 +4591,7 @@
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.005052100000000337</v>
+        <v>0.00596249999999543</v>
       </c>
       <c r="U61">
         <v>28</v>
@@ -4659,7 +4659,7 @@
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.004227500000013151</v>
+        <v>0.004312699999999836</v>
       </c>
       <c r="U62">
         <v>23</v>
@@ -4727,7 +4727,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.005953300000044237</v>
+        <v>0.005440600000000018</v>
       </c>
       <c r="U63">
         <v>28</v>
@@ -4795,7 +4795,7 @@
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.003135299999996732</v>
+        <v>0.003321099999993748</v>
       </c>
       <c r="U64">
         <v>17</v>
@@ -4863,7 +4863,7 @@
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.006009500000004664</v>
+        <v>0.005243699999994078</v>
       </c>
       <c r="U65">
         <v>28</v>
@@ -4931,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.004853500000024269</v>
+        <v>0.005617999999998347</v>
       </c>
       <c r="U66">
         <v>27</v>
@@ -4999,7 +4999,7 @@
         <v>22</v>
       </c>
       <c r="T67">
-        <v>0.004126700000028904</v>
+        <v>0.004380300000008219</v>
       </c>
       <c r="U67">
         <v>23</v>
@@ -5067,7 +5067,7 @@
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.004949600000031751</v>
+        <v>0.004399100000000544</v>
       </c>
       <c r="U68">
         <v>23</v>
@@ -5135,7 +5135,7 @@
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.005294800000001487</v>
+        <v>0.006546100000008437</v>
       </c>
       <c r="U69">
         <v>29</v>
@@ -5203,7 +5203,7 @@
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.004336799999975938</v>
+        <v>0.004271199999990927</v>
       </c>
       <c r="U70">
         <v>23</v>
@@ -5271,7 +5271,7 @@
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.00506540000003497</v>
+        <v>0.005071999999998411</v>
       </c>
       <c r="U71">
         <v>27</v>
@@ -5339,7 +5339,7 @@
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.004966299999978219</v>
+        <v>0.005604399999995735</v>
       </c>
       <c r="U72">
         <v>27</v>
@@ -5407,7 +5407,7 @@
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.004187900000033551</v>
+        <v>0.004948300000009453</v>
       </c>
       <c r="U73">
         <v>23</v>
@@ -5475,7 +5475,7 @@
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.003810400000020309</v>
+        <v>0.003852600000001871</v>
       </c>
       <c r="U74">
         <v>21</v>
@@ -5543,7 +5543,7 @@
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.005195899999989706</v>
+        <v>0.00535109999999861</v>
       </c>
       <c r="U75">
         <v>29</v>
@@ -5611,7 +5611,7 @@
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.005477600000006078</v>
+        <v>0.004717499999998154</v>
       </c>
       <c r="U76">
         <v>24</v>
@@ -5679,7 +5679,7 @@
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.004759400000011738</v>
+        <v>0.005066499999998086</v>
       </c>
       <c r="U77">
         <v>27</v>
@@ -5747,7 +5747,7 @@
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.004890900000020793</v>
+        <v>0.005938600000007455</v>
       </c>
       <c r="U78">
         <v>27</v>
@@ -5815,7 +5815,7 @@
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.003807200000039757</v>
+        <v>0.004205300000009515</v>
       </c>
       <c r="U79">
         <v>18</v>
@@ -5883,7 +5883,7 @@
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.003179000000045562</v>
+        <v>0.003278600000001575</v>
       </c>
       <c r="U80">
         <v>17</v>
@@ -5951,7 +5951,7 @@
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.005943900000033864</v>
+        <v>0.005619499999994559</v>
       </c>
       <c r="U81">
         <v>28</v>
@@ -6019,7 +6019,7 @@
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.005243699999994078</v>
+        <v>0.005889800000005607</v>
       </c>
       <c r="U82">
         <v>29</v>
@@ -6087,7 +6087,7 @@
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.004612599999973099</v>
+        <v>0.004836599999990199</v>
       </c>
       <c r="U83">
         <v>26</v>
@@ -6155,7 +6155,7 @@
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.004870100000005095</v>
+        <v>0.004497399999991103</v>
       </c>
       <c r="U84">
         <v>24</v>
@@ -6223,7 +6223,7 @@
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.004309200000022884</v>
+        <v>0.004803899999998862</v>
       </c>
       <c r="U85">
         <v>24</v>
@@ -6291,7 +6291,7 @@
         <v>23</v>
       </c>
       <c r="T86">
-        <v>0.003653499999984433</v>
+        <v>0.003390100000004281</v>
       </c>
       <c r="U86">
         <v>17</v>
@@ -6359,7 +6359,7 @@
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.00517539999998462</v>
+        <v>0.005934899999999743</v>
       </c>
       <c r="U87">
         <v>29</v>
@@ -6427,7 +6427,7 @@
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.004318899999987025</v>
+        <v>0.004909600000004843</v>
       </c>
       <c r="U88">
         <v>23</v>
@@ -6495,7 +6495,7 @@
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.006103900000027807</v>
+        <v>0.005843499999997448</v>
       </c>
       <c r="U89">
         <v>30</v>
@@ -6563,7 +6563,7 @@
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.005187100000000555</v>
+        <v>0.005385500000002708</v>
       </c>
       <c r="U90">
         <v>29</v>
@@ -6631,7 +6631,7 @@
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.004932999999994081</v>
+        <v>0.005788899999998876</v>
       </c>
       <c r="U91">
         <v>27</v>
@@ -6699,7 +6699,7 @@
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.004384799999968436</v>
+        <v>0.004279699999997888</v>
       </c>
       <c r="U92">
         <v>23</v>
@@ -6767,7 +6767,7 @@
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.004227299999968182</v>
+        <v>0.004439500000003704</v>
       </c>
       <c r="U93">
         <v>23</v>
@@ -6835,7 +6835,7 @@
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.005051199999968503</v>
+        <v>0.004454600000002529</v>
       </c>
       <c r="U94">
         <v>23</v>
@@ -6903,7 +6903,7 @@
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.005248299999948358</v>
+        <v>0.005545900000001325</v>
       </c>
       <c r="U95">
         <v>29</v>
@@ -6971,7 +6971,7 @@
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.005627000000004045</v>
+        <v>0.006035199999999463</v>
       </c>
       <c r="U96">
         <v>31</v>
@@ -7039,7 +7039,7 @@
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.00492420000000493</v>
+        <v>0.004883599999999433</v>
       </c>
       <c r="U97">
         <v>23</v>
@@ -7107,7 +7107,7 @@
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.004406200000005356</v>
+        <v>0.004500100000001339</v>
       </c>
       <c r="U98">
         <v>24</v>
@@ -7175,7 +7175,7 @@
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.005514500000003864</v>
+        <v>0.005466100000006691</v>
       </c>
       <c r="U99">
         <v>29</v>
@@ -7243,7 +7243,7 @@
         <v>24</v>
       </c>
       <c r="T100">
-        <v>0.006488599999954658</v>
+        <v>0.006685799999999631</v>
       </c>
       <c r="U100">
         <v>31</v>
@@ -7311,7 +7311,7 @@
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.005295999999987089</v>
+        <v>0.005779000000003975</v>
       </c>
       <c r="U101">
         <v>30</v>

--- a/tests/tests8/ЛМ 0.5.xlsx
+++ b/tests/tests8/ЛМ 0.5.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.003788200000030884</v>
+        <v>0.004306400000000821</v>
       </c>
       <c r="U2">
         <v>19</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.002542699999935394</v>
+        <v>0.002421800000000474</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.001753699999994751</v>
+        <v>0.002904699999998428</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.004107500000031905</v>
+        <v>0.003554599999997521</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004885599999965962</v>
+        <v>0.004762700000000564</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.009963200000015604</v>
+        <v>0.001982100000002873</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005727299999989555</v>
+        <v>0.00552499999999867</v>
       </c>
       <c r="U8">
         <v>27</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.001789499999972577</v>
+        <v>0.001939699999997657</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.004610599999978149</v>
+        <v>0.004870799999999065</v>
       </c>
       <c r="U10">
         <v>23</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.0016217999999526</v>
+        <v>0.001576400000001144</v>
       </c>
       <c r="U11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.5.xlsx
+++ b/tests/tests8/ЛМ 0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>П0_ист</t>
   </si>
@@ -52,6 +52,12 @@
     <t>V0_апр</t>
   </si>
   <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
+  </si>
+  <si>
     <t>СКО X</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>[1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1]</t>
   </si>
 </sst>
 </file>
@@ -440,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +522,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,16 +543,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.9475555172913</v>
+        <v>-0.01975692252230686</v>
       </c>
       <c r="F2">
-        <v>9.889474427380607</v>
+        <v>10.13383515667422</v>
       </c>
       <c r="G2">
-        <v>98.29854688253751</v>
+        <v>11.69538125742577</v>
       </c>
       <c r="H2">
-        <v>11.52104827098369</v>
+        <v>-1.826406379393464</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -552,37 +567,43 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.01404624420276926</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="N2">
-        <v>0.1978782911951048</v>
+        <v>15.80711097780685</v>
       </c>
       <c r="O2">
-        <v>0.3154859697663835</v>
+        <v>0.01453919245408071</v>
       </c>
       <c r="P2">
-        <v>0.07324887904730873</v>
+        <v>0.2085034966710157</v>
       </c>
       <c r="Q2">
-        <v>0.2343104847625582</v>
+        <v>0.330310466251496</v>
       </c>
       <c r="R2">
-        <v>0.05694419547797121</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
+        <v>0.07852750940759666</v>
+      </c>
+      <c r="S2">
+        <v>0.2497533387130751</v>
       </c>
       <c r="T2">
-        <v>0.004306400000000821</v>
-      </c>
-      <c r="U2">
+        <v>0.1152293055165494</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>0.003788299999541778</v>
+      </c>
+      <c r="W2">
         <v>19</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>0</v>
       </c>
@@ -596,16 +617,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.8239654530244</v>
+        <v>0.004651854327265228</v>
       </c>
       <c r="F3">
-        <v>10.27790242622193</v>
+        <v>9.830302605549459</v>
       </c>
       <c r="G3">
-        <v>75.2817700785313</v>
+        <v>10.96562628243216</v>
       </c>
       <c r="H3">
-        <v>12.15357382803412</v>
+        <v>2.962485568665324</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -620,37 +641,43 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.01477651808282522</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="N3">
-        <v>0.1681820979906068</v>
+        <v>18.32782196423818</v>
       </c>
       <c r="O3">
-        <v>0.2704600255452684</v>
+        <v>0.01380419785901154</v>
       </c>
       <c r="P3">
-        <v>0.06078309125305714</v>
+        <v>0.1515811242223943</v>
       </c>
       <c r="Q3">
-        <v>0.2430730009759317</v>
+        <v>0.2430115675973189</v>
       </c>
       <c r="R3">
-        <v>0.2052016647152914</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
+        <v>0.05677925549936502</v>
+      </c>
+      <c r="S3">
+        <v>0.2485255141753749</v>
       </c>
       <c r="T3">
-        <v>0.002421800000000474</v>
-      </c>
-      <c r="U3">
+        <v>0.1253923199402223</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>0.002423400000225229</v>
+      </c>
+      <c r="W3">
         <v>12</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -664,16 +691,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.05747062743088954</v>
+        <v>0.01273031017542255</v>
       </c>
       <c r="F4">
-        <v>10.0367287645458</v>
+        <v>10.03734774989143</v>
       </c>
       <c r="G4">
-        <v>79.3521244409242</v>
+        <v>3.202424754870695</v>
       </c>
       <c r="H4">
-        <v>3.281622169751866</v>
+        <v>0.5621002594325382</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -688,37 +715,43 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>0.01148702092935522</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="N4">
-        <v>0.07105398381629766</v>
+        <v>9.618122158119826</v>
       </c>
       <c r="O4">
-        <v>0.06594229635921257</v>
+        <v>0.01146877123962651</v>
       </c>
       <c r="P4">
-        <v>0.06506541305048055</v>
+        <v>0.07077152749277946</v>
       </c>
       <c r="Q4">
-        <v>0.2460072913783563</v>
+        <v>0.06561284316501051</v>
       </c>
       <c r="R4">
-        <v>0.06458305619542684</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
+        <v>0.06472113719637018</v>
+      </c>
+      <c r="S4">
+        <v>0.2636969655218036</v>
       </c>
       <c r="T4">
-        <v>0.002904699999998428</v>
-      </c>
-      <c r="U4">
+        <v>0.1162693016472845</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>0.00181810000049154</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -732,16 +765,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.09528540906729623</v>
+        <v>0.01824525523088404</v>
       </c>
       <c r="F5">
-        <v>9.896504284238006</v>
+        <v>9.910394359814957</v>
       </c>
       <c r="G5">
-        <v>99.47730579858042</v>
+        <v>11.14403004091787</v>
       </c>
       <c r="H5">
-        <v>11.25917329565604</v>
+        <v>-1.816866811048061</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -756,37 +789,43 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.01368770594468278</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="N5">
-        <v>0.1966415434625899</v>
+        <v>15.67687823027242</v>
       </c>
       <c r="O5">
-        <v>0.3075229324395513</v>
+        <v>0.0136901744075958</v>
       </c>
       <c r="P5">
-        <v>0.07627595446581556</v>
+        <v>0.1969446665939582</v>
       </c>
       <c r="Q5">
-        <v>0.2379997669093853</v>
+        <v>0.3084120152451491</v>
       </c>
       <c r="R5">
-        <v>0.1012924546808331</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
+        <v>0.07554578936179879</v>
+      </c>
+      <c r="S5">
+        <v>0.2614557321106691</v>
       </c>
       <c r="T5">
-        <v>0.003554599999997521</v>
-      </c>
-      <c r="U5">
+        <v>0.07697502774778363</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
+        <v>0.003617600000325183</v>
+      </c>
+      <c r="W5">
         <v>19</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -800,16 +839,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9367958123206</v>
+        <v>-0.005593388727662934</v>
       </c>
       <c r="F6">
-        <v>10.02117161531371</v>
+        <v>10.08023781372758</v>
       </c>
       <c r="G6">
-        <v>173.9556712894613</v>
+        <v>1.019089209869663</v>
       </c>
       <c r="H6">
-        <v>9.594326574885377</v>
+        <v>-9.609820349520117</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -824,37 +863,43 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>0.005153440283950372</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="N6">
-        <v>0.06104413330715518</v>
+        <v>4.673171010711503</v>
       </c>
       <c r="O6">
-        <v>0.01942516968007393</v>
+        <v>0.005189622395434814</v>
       </c>
       <c r="P6">
-        <v>0.0744868681070367</v>
+        <v>0.06175509117728712</v>
       </c>
       <c r="Q6">
-        <v>0.2288040247360744</v>
+        <v>0.01958556071322767</v>
       </c>
       <c r="R6">
-        <v>0.02926880788574159</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
+        <v>0.07533354058980499</v>
+      </c>
+      <c r="S6">
+        <v>0.2347663779009198</v>
       </c>
       <c r="T6">
-        <v>0.004762700000000564</v>
-      </c>
-      <c r="U6">
+        <v>0.07300184433644824</v>
+      </c>
+      <c r="U6" t="s">
         <v>24</v>
       </c>
       <c r="V6">
+        <v>0.004629999999451684</v>
+      </c>
+      <c r="W6">
+        <v>24</v>
+      </c>
+      <c r="X6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -868,16 +913,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>0.0471706427584763</v>
+        <v>-0.01468228349417596</v>
       </c>
       <c r="F7">
-        <v>9.910337470923135</v>
+        <v>10.0868558305905</v>
       </c>
       <c r="G7">
-        <v>39.70079299084666</v>
+        <v>8.79964102472934</v>
       </c>
       <c r="H7">
-        <v>13.34566271246538</v>
+        <v>10.46273594966077</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -892,37 +937,43 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>0.01450995201508938</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="N7">
-        <v>0.1387526056233922</v>
+        <v>22.87529985576693</v>
       </c>
       <c r="O7">
-        <v>0.1783772628513201</v>
+        <v>0.01484813186163807</v>
       </c>
       <c r="P7">
-        <v>0.1796090621252639</v>
+        <v>0.1442326143133436</v>
       </c>
       <c r="Q7">
-        <v>0.2469399913228464</v>
+        <v>0.186287632744207</v>
       </c>
       <c r="R7">
-        <v>0.05235579705264063</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
+        <v>0.185357796992638</v>
+      </c>
+      <c r="S7">
+        <v>0.2399093190690516</v>
       </c>
       <c r="T7">
-        <v>0.001982100000002873</v>
-      </c>
-      <c r="U7">
+        <v>0.0791417983743499</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>0.001905999999507912</v>
+      </c>
+      <c r="W7">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -936,16 +987,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>359.965095784304</v>
+        <v>-0.02161212822251417</v>
       </c>
       <c r="F8">
-        <v>9.975099135092572</v>
+        <v>10.2897027449665</v>
       </c>
       <c r="G8">
-        <v>160.6166263098647</v>
+        <v>2.490843728109954</v>
       </c>
       <c r="H8">
-        <v>6.961658502714954</v>
+        <v>-6.853296320566416</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -960,37 +1011,43 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>0.01306964839533613</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="N8">
-        <v>0.1985419916861703</v>
+        <v>3.973338297383755</v>
       </c>
       <c r="O8">
-        <v>0.1225678380083757</v>
+        <v>0.01379523706691668</v>
       </c>
       <c r="P8">
-        <v>0.1784518030404231</v>
+        <v>0.2124905465966258</v>
       </c>
       <c r="Q8">
-        <v>0.2318868073185198</v>
+        <v>0.1307843728763404</v>
       </c>
       <c r="R8">
-        <v>0.02324213521418821</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
+        <v>0.1910976812362392</v>
+      </c>
+      <c r="S8">
+        <v>0.231867240113249</v>
       </c>
       <c r="T8">
-        <v>0.00552499999999867</v>
-      </c>
-      <c r="U8">
+        <v>0.2209546709939433</v>
+      </c>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>0.005240600000433915</v>
+      </c>
+      <c r="W8">
         <v>27</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1004,16 +1061,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.9974225657304</v>
+        <v>0.01073536758728616</v>
       </c>
       <c r="F9">
-        <v>9.819121136921643</v>
+        <v>9.807701831405023</v>
       </c>
       <c r="G9">
-        <v>13.4211083339995</v>
+        <v>2.797417036521364</v>
       </c>
       <c r="H9">
-        <v>12.50405149702413</v>
+        <v>11.68015120584973</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1028,37 +1085,43 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.01329807536297749</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="N9">
-        <v>0.1566199298478446</v>
+        <v>22.28974380606835</v>
       </c>
       <c r="O9">
-        <v>0.08098726907077024</v>
+        <v>0.01320770731754539</v>
       </c>
       <c r="P9">
-        <v>0.2750515390315053</v>
+        <v>0.1533289914828509</v>
       </c>
       <c r="Q9">
-        <v>0.2283444992796186</v>
+        <v>0.07846998644241136</v>
       </c>
       <c r="R9">
-        <v>0.06798647837723952</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
+        <v>0.2676327529376552</v>
+      </c>
+      <c r="S9">
+        <v>0.237284687279892</v>
       </c>
       <c r="T9">
-        <v>0.001939699999997657</v>
-      </c>
-      <c r="U9">
+        <v>0.1404708720571867</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>0.001604899999620102</v>
+      </c>
+      <c r="W9">
         <v>8</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1072,16 +1135,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>0.05100039125258248</v>
+        <v>-0.001984005821435873</v>
       </c>
       <c r="F10">
-        <v>10.04020592009901</v>
+        <v>9.944744668877812</v>
       </c>
       <c r="G10">
-        <v>157.2705908725429</v>
+        <v>5.6300537468699</v>
       </c>
       <c r="H10">
-        <v>14.67891281188453</v>
+        <v>-13.39375212503386</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1096,37 +1159,43 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>0.006508488911371344</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="N10">
-        <v>0.08652617512294217</v>
+        <v>11.86534188679525</v>
       </c>
       <c r="O10">
-        <v>0.07198390093626435</v>
+        <v>0.006460732149121269</v>
       </c>
       <c r="P10">
-        <v>0.138927731878081</v>
+        <v>0.084995744229393</v>
       </c>
       <c r="Q10">
-        <v>0.2717276949314406</v>
+        <v>0.07107133513078179</v>
       </c>
       <c r="R10">
-        <v>0.03043047561826547</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
+        <v>0.1365540833565687</v>
+      </c>
+      <c r="S10">
+        <v>0.2735619866161855</v>
       </c>
       <c r="T10">
-        <v>0.004870799999999065</v>
-      </c>
-      <c r="U10">
+        <v>0.02972240870893477</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>0.004371799999717041</v>
+      </c>
+      <c r="W10">
         <v>23</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1140,16 +1209,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>359.999774569271</v>
+        <v>-0.003285339562279935</v>
       </c>
       <c r="F11">
-        <v>10.1996765193105</v>
+        <v>10.122572514747</v>
       </c>
       <c r="G11">
-        <v>1.886367077040218</v>
+        <v>0.3000174133799398</v>
       </c>
       <c r="H11">
-        <v>8.753370562908337</v>
+        <v>8.905751100925213</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1164,33 +1233,39 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>0.010817954656701</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="N11">
-        <v>0.2166875813821088</v>
+        <v>18.26849864379155</v>
       </c>
       <c r="O11">
-        <v>0.03987925727607566</v>
+        <v>0.01075751842427974</v>
       </c>
       <c r="P11">
-        <v>0.3505332610040941</v>
+        <v>0.2160914203636571</v>
       </c>
       <c r="Q11">
-        <v>0.2457056526973184</v>
+        <v>0.03998757396672425</v>
       </c>
       <c r="R11">
-        <v>0.108381693945078</v>
-      </c>
-      <c r="S11" t="s">
-        <v>22</v>
+        <v>0.3503202748998872</v>
+      </c>
+      <c r="S11">
+        <v>0.2617622958859936</v>
       </c>
       <c r="T11">
-        <v>0.001576400000001144</v>
-      </c>
-      <c r="U11">
-        <v>7</v>
+        <v>0.03738478149148515</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
       </c>
       <c r="V11">
+        <v>0.001466900000195892</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.5.xlsx
+++ b/tests/tests8/ЛМ 0.5.xlsx
@@ -543,16 +543,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.01975692252230686</v>
+        <v>359.8882963039174</v>
       </c>
       <c r="F2">
-        <v>10.13383515667422</v>
+        <v>10.13385441570155</v>
       </c>
       <c r="G2">
-        <v>11.69538125742577</v>
+        <v>98.87589145744209</v>
       </c>
       <c r="H2">
-        <v>-1.826406379393464</v>
+        <v>11.83713238158783</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>24</v>
       </c>
       <c r="V2">
-        <v>0.003788299999541778</v>
+        <v>0.003718800000000133</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -617,16 +617,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>0.004651854327265228</v>
+        <v>0.02711326503991647</v>
       </c>
       <c r="F3">
-        <v>9.830302605549459</v>
+        <v>9.830303706214837</v>
       </c>
       <c r="G3">
-        <v>10.96562628243216</v>
+        <v>74.88182248631469</v>
       </c>
       <c r="H3">
-        <v>2.962485568665324</v>
+        <v>11.35875347520657</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="V3">
-        <v>0.002423400000225229</v>
+        <v>0.002824299999999891</v>
       </c>
       <c r="W3">
         <v>12</v>
@@ -691,16 +691,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.01273031017542255</v>
+        <v>0.07266786725199158</v>
       </c>
       <c r="F4">
-        <v>10.03734774989143</v>
+        <v>10.03735582277761</v>
       </c>
       <c r="G4">
-        <v>3.202424754870695</v>
+        <v>80.04466343102068</v>
       </c>
       <c r="H4">
-        <v>0.5621002594325382</v>
+        <v>3.251381400614631</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="V4">
-        <v>0.00181810000049154</v>
+        <v>0.00163689999999983</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -765,16 +765,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.01824525523088404</v>
+        <v>0.105482678273327</v>
       </c>
       <c r="F5">
-        <v>9.910394359814957</v>
+        <v>9.910411154759954</v>
       </c>
       <c r="G5">
-        <v>11.14403004091787</v>
+        <v>99.25974770644137</v>
       </c>
       <c r="H5">
-        <v>-1.816866811048061</v>
+        <v>11.29116515519846</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>24</v>
       </c>
       <c r="V5">
-        <v>0.003617600000325183</v>
+        <v>0.003539600000000309</v>
       </c>
       <c r="W5">
         <v>19</v>
@@ -839,16 +839,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.005593388727662934</v>
+        <v>359.968207343884</v>
       </c>
       <c r="F6">
-        <v>10.08023781372758</v>
+        <v>10.08023936557564</v>
       </c>
       <c r="G6">
-        <v>1.019089209869663</v>
+        <v>173.9465991027023</v>
       </c>
       <c r="H6">
-        <v>-9.609820349520117</v>
+        <v>9.663704774449792</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="V6">
-        <v>0.004629999999451684</v>
+        <v>0.004398899999999983</v>
       </c>
       <c r="W6">
         <v>24</v>
@@ -913,16 +913,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.01468228349417596</v>
+        <v>359.9166011393594</v>
       </c>
       <c r="F7">
-        <v>10.0868558305905</v>
+        <v>10.08686651624607</v>
       </c>
       <c r="G7">
-        <v>8.79964102472934</v>
+        <v>40.06537535067117</v>
       </c>
       <c r="H7">
-        <v>10.46273594966077</v>
+        <v>13.67122985383625</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>24</v>
       </c>
       <c r="V7">
-        <v>0.001905999999507912</v>
+        <v>0.001831600000000044</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -987,16 +987,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>-0.02161212822251417</v>
+        <v>359.8796581453097</v>
       </c>
       <c r="F8">
-        <v>10.2897027449665</v>
+        <v>10.28972544161687</v>
       </c>
       <c r="G8">
-        <v>2.490843728109954</v>
+        <v>160.0262275093646</v>
       </c>
       <c r="H8">
-        <v>-6.853296320566416</v>
+        <v>7.291911473362378</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="V8">
-        <v>0.005240600000433915</v>
+        <v>0.005197800000000363</v>
       </c>
       <c r="W8">
         <v>27</v>
@@ -1061,16 +1061,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>0.01073536758728616</v>
+        <v>0.0627151007642917</v>
       </c>
       <c r="F9">
-        <v>9.807701831405023</v>
+        <v>9.807707706791769</v>
       </c>
       <c r="G9">
-        <v>2.797417036521364</v>
+        <v>13.46873916990638</v>
       </c>
       <c r="H9">
-        <v>11.68015120584973</v>
+        <v>12.01047352387627</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="V9">
-        <v>0.001604899999620102</v>
+        <v>0.001613800000000332</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1135,16 +1135,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.001984005821435873</v>
+        <v>359.9885693235599</v>
       </c>
       <c r="F10">
-        <v>9.944744668877812</v>
+        <v>9.94474486678531</v>
       </c>
       <c r="G10">
-        <v>5.6300537468699</v>
+        <v>157.2005860875827</v>
       </c>
       <c r="H10">
-        <v>-13.39375212503386</v>
+        <v>14.52894012581416</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="V10">
-        <v>0.004371799999717041</v>
+        <v>0.004138200000000314</v>
       </c>
       <c r="W10">
         <v>23</v>
@@ -1209,16 +1209,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-0.003285339562279935</v>
+        <v>359.9814043234264</v>
       </c>
       <c r="F11">
-        <v>10.122572514747</v>
+        <v>10.12257304788498</v>
       </c>
       <c r="G11">
-        <v>0.3000174133799398</v>
+        <v>1.929453564083949</v>
       </c>
       <c r="H11">
-        <v>8.905751100925213</v>
+        <v>8.910803169185247</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>24</v>
       </c>
       <c r="V11">
-        <v>0.001466900000195892</v>
+        <v>0.001583300000000065</v>
       </c>
       <c r="W11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.5.xlsx
+++ b/tests/tests8/ЛМ 0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>П0_ист</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -449,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +534,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -567,43 +579,49 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="N2">
         <v>15.80711097780685</v>
       </c>
       <c r="O2">
+        <v>70.67305129860051</v>
+      </c>
+      <c r="P2">
+        <v>16.09201388165901</v>
+      </c>
+      <c r="Q2">
         <v>0.01453919245408071</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.2085034966710157</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.330310466251496</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.07852750940759666</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.2497533387130751</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.1152293055165494</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2">
-        <v>0.003718800000000133</v>
-      </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>0.004423600000023953</v>
+      </c>
+      <c r="Y2">
         <v>19</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>0</v>
       </c>
@@ -641,43 +659,49 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="N3">
         <v>18.32782196423818</v>
       </c>
       <c r="O3">
+        <v>53.08272866968613</v>
+      </c>
+      <c r="P3">
+        <v>17.92844585666532</v>
+      </c>
+      <c r="Q3">
         <v>0.01380419785901154</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.1515811242223943</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.2430115675973189</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.05677925549936502</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.2485255141753749</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.1253923199402223</v>
       </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3">
-        <v>0.002824299999999891</v>
-      </c>
-      <c r="W3">
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>0.002590400000002546</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0</v>
       </c>
@@ -715,43 +739,49 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="N4">
         <v>9.618122158119826</v>
       </c>
       <c r="O4">
+        <v>31.83407576318698</v>
+      </c>
+      <c r="P4">
+        <v>9.528842181463933</v>
+      </c>
+      <c r="Q4">
         <v>0.01146877123962651</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.07077152749277946</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.06561284316501051</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.06472113719637018</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.2636969655218036</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.1162693016472845</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4">
-        <v>0.00163689999999983</v>
-      </c>
-      <c r="W4">
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>0.001853500000009944</v>
+      </c>
+      <c r="Y4">
         <v>8</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>0</v>
       </c>
@@ -789,43 +819,49 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="N5">
         <v>15.67687823027242</v>
       </c>
       <c r="O5">
+        <v>70.64949410695988</v>
+      </c>
+      <c r="P5">
+        <v>15.43337878426448</v>
+      </c>
+      <c r="Q5">
         <v>0.0136901744075958</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.1969446665939582</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.3084120152451491</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.07554578936179879</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.2614557321106691</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.07697502774778363</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5">
-        <v>0.003539600000000309</v>
-      </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>0.003748400000006313</v>
+      </c>
+      <c r="Y5">
         <v>19</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0</v>
       </c>
@@ -863,43 +899,49 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="N6">
         <v>4.673171010711503</v>
       </c>
       <c r="O6">
+        <v>149.5880591412187</v>
+      </c>
+      <c r="P6">
+        <v>4.716918430300257</v>
+      </c>
+      <c r="Q6">
         <v>0.005189622395434814</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.06175509117728712</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.01958556071322767</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.07533354058980499</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.2347663779009198</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.07300184433644824</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6">
+        <v>0.004539799999975003</v>
+      </c>
+      <c r="Y6">
         <v>24</v>
       </c>
-      <c r="V6">
-        <v>0.004398899999999983</v>
-      </c>
-      <c r="W6">
-        <v>24</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>0</v>
       </c>
@@ -937,43 +979,49 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="N7">
         <v>22.87529985576693</v>
       </c>
       <c r="O7">
+        <v>30.32819229263571</v>
+      </c>
+      <c r="P7">
+        <v>23.20088234019127</v>
+      </c>
+      <c r="Q7">
         <v>0.01484813186163807</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.1442326143133436</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.186287632744207</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.185357796992638</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.2399093190690516</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.0791417983743499</v>
       </c>
-      <c r="U7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7">
-        <v>0.001831600000000044</v>
-      </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>0.00194490000001224</v>
+      </c>
+      <c r="Y7">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1011,43 +1059,49 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="N8">
         <v>3.973338297383755</v>
       </c>
       <c r="O8">
+        <v>97.57969630355545</v>
+      </c>
+      <c r="P8">
+        <v>4.174328344507831</v>
+      </c>
+      <c r="Q8">
         <v>0.01379523706691668</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.2124905465966258</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.1307843728763404</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.1910976812362392</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.231867240113249</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.2209546709939433</v>
       </c>
-      <c r="U8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8">
-        <v>0.005197800000000363</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
         <v>27</v>
       </c>
       <c r="X8">
+        <v>0.005020600000023023</v>
+      </c>
+      <c r="Y8">
+        <v>27</v>
+      </c>
+      <c r="Z8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1085,43 +1139,49 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="N9">
         <v>22.28974380606835</v>
       </c>
       <c r="O9">
+        <v>12.07827929246451</v>
+      </c>
+      <c r="P9">
+        <v>21.68762778912518</v>
+      </c>
+      <c r="Q9">
         <v>0.01320770731754539</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.1533289914828509</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.07846998644241136</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.2676327529376552</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.237284687279892</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.1404708720571867</v>
       </c>
-      <c r="U9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9">
-        <v>0.001613800000000332</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <v>0.00172599999999079</v>
+      </c>
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1159,43 +1219,49 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="N10">
         <v>11.86534188679525</v>
       </c>
       <c r="O10">
+        <v>137.8149250211779</v>
+      </c>
+      <c r="P10">
+        <v>11.80075803707316</v>
+      </c>
+      <c r="Q10">
         <v>0.006460732149121269</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.084995744229393</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.07107133513078179</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.1365540833565687</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.2735619866161855</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.02972240870893477</v>
       </c>
-      <c r="U10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10">
-        <v>0.004138200000000314</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>0.00423909999997818</v>
+      </c>
+      <c r="Y10">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1233,39 +1299,45 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="N11">
         <v>18.26849864379155</v>
       </c>
       <c r="O11">
+        <v>4.798347146959523</v>
+      </c>
+      <c r="P11">
+        <v>18.25709750591221</v>
+      </c>
+      <c r="Q11">
         <v>0.01075751842427974</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.2160914203636571</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.03998757396672425</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.3503202748998872</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.2617622958859936</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.03738478149148515</v>
       </c>
-      <c r="U11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11">
-        <v>0.001583300000000065</v>
-      </c>
-      <c r="W11">
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>0.00147989999999254</v>
+      </c>
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.5.xlsx
+++ b/tests/tests8/ЛМ 0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
   <si>
     <t>П0_ист</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +612,7 @@
         <v>26</v>
       </c>
       <c r="X2">
-        <v>0.004423600000023953</v>
+        <v>0.00404270000001361</v>
       </c>
       <c r="Y2">
         <v>19</v>
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="X3">
-        <v>0.002590400000002546</v>
+        <v>0.002325000000013233</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -772,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="X4">
-        <v>0.001853500000009944</v>
+        <v>0.001675800000015215</v>
       </c>
       <c r="Y4">
         <v>8</v>
@@ -852,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="X5">
-        <v>0.003748400000006313</v>
+        <v>0.003736699999990378</v>
       </c>
       <c r="Y5">
         <v>19</v>
@@ -932,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="X6">
-        <v>0.004539799999975003</v>
+        <v>0.004348500000020294</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -1012,7 +1012,7 @@
         <v>26</v>
       </c>
       <c r="X7">
-        <v>0.00194490000001224</v>
+        <v>0.001873200000005681</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="X8">
-        <v>0.005020600000023023</v>
+        <v>0.004874400000005608</v>
       </c>
       <c r="Y8">
         <v>27</v>
@@ -1172,7 +1172,7 @@
         <v>26</v>
       </c>
       <c r="X9">
-        <v>0.00172599999999079</v>
+        <v>0.001639100000005556</v>
       </c>
       <c r="Y9">
         <v>8</v>
@@ -1252,7 +1252,7 @@
         <v>26</v>
       </c>
       <c r="X10">
-        <v>0.00423909999997818</v>
+        <v>0.004376600000000508</v>
       </c>
       <c r="Y10">
         <v>23</v>
@@ -1332,13 +1332,7213 @@
         <v>26</v>
       </c>
       <c r="X11">
-        <v>0.00147989999999254</v>
+        <v>0.00146209999999769</v>
       </c>
       <c r="Y11">
         <v>7</v>
       </c>
       <c r="Z11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.9680606754164</v>
+      </c>
+      <c r="F12">
+        <v>9.998354893339577</v>
+      </c>
+      <c r="G12">
+        <v>138.8511100418627</v>
+      </c>
+      <c r="H12">
+        <v>3.254755913513799</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="N12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="O12">
+        <v>40.06412231019974</v>
+      </c>
+      <c r="P12">
+        <v>5.802746881538736</v>
+      </c>
+      <c r="Q12">
+        <v>0.01046718265875474</v>
+      </c>
+      <c r="R12">
+        <v>0.05533385735412575</v>
+      </c>
+      <c r="S12">
+        <v>0.05067208552120445</v>
+      </c>
+      <c r="T12">
+        <v>0.03682955683930178</v>
+      </c>
+      <c r="U12">
+        <v>0.2224416667775038</v>
+      </c>
+      <c r="V12">
+        <v>0.01521148104521694</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>0.002692800000005491</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>0.02774055359636167</v>
+      </c>
+      <c r="F13">
+        <v>9.84335590964637</v>
+      </c>
+      <c r="G13">
+        <v>31.5163921667587</v>
+      </c>
+      <c r="H13">
+        <v>3.176666396668709</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="N13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="O13">
+        <v>16.8241349645835</v>
+      </c>
+      <c r="P13">
+        <v>10.94516498437967</v>
+      </c>
+      <c r="Q13">
+        <v>0.01079935694264623</v>
+      </c>
+      <c r="R13">
+        <v>0.08094487063264102</v>
+      </c>
+      <c r="S13">
+        <v>0.0465356285402857</v>
+      </c>
+      <c r="T13">
+        <v>0.1206253117388918</v>
+      </c>
+      <c r="U13">
+        <v>0.2406464341456485</v>
+      </c>
+      <c r="V13">
+        <v>0.1335537947009384</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>0.002010100000006787</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>0.03036471277936439</v>
+      </c>
+      <c r="F14">
+        <v>10.11200259605331</v>
+      </c>
+      <c r="G14">
+        <v>27.80667353793598</v>
+      </c>
+      <c r="H14">
+        <v>12.18778833070824</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="N14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="O14">
+        <v>21.37839895144762</v>
+      </c>
+      <c r="P14">
+        <v>21.94189616126665</v>
+      </c>
+      <c r="Q14">
+        <v>0.01430302844176288</v>
+      </c>
+      <c r="R14">
+        <v>0.1347325948236528</v>
+      </c>
+      <c r="S14">
+        <v>0.1247025763847367</v>
+      </c>
+      <c r="T14">
+        <v>0.2059529330807514</v>
+      </c>
+      <c r="U14">
+        <v>0.2518117958211752</v>
+      </c>
+      <c r="V14">
+        <v>0.1157219315477185</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14">
+        <v>0.001669600000013816</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>359.9958407506182</v>
+      </c>
+      <c r="F15">
+        <v>10.05417755840425</v>
+      </c>
+      <c r="G15">
+        <v>139.8789193416146</v>
+      </c>
+      <c r="H15">
+        <v>5.905886867285393</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="N15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="O15">
+        <v>70.6155554251972</v>
+      </c>
+      <c r="P15">
+        <v>6.081401701172464</v>
+      </c>
+      <c r="Q15">
+        <v>0.01198487747273529</v>
+      </c>
+      <c r="R15">
+        <v>0.1137238409099663</v>
+      </c>
+      <c r="S15">
+        <v>0.1014650828950737</v>
+      </c>
+      <c r="T15">
+        <v>0.0679565469327495</v>
+      </c>
+      <c r="U15">
+        <v>0.2192833584110812</v>
+      </c>
+      <c r="V15">
+        <v>0.05569662506320328</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>0.003681400000004942</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+      <c r="Z15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>0.08932668130371872</v>
+      </c>
+      <c r="F16">
+        <v>9.889369396468053</v>
+      </c>
+      <c r="G16">
+        <v>92.34306123612878</v>
+      </c>
+      <c r="H16">
+        <v>12.12771862992415</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="N16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="O16">
+        <v>66.99285042078377</v>
+      </c>
+      <c r="P16">
+        <v>17.08605920997736</v>
+      </c>
+      <c r="Q16">
+        <v>0.01390776568311037</v>
+      </c>
+      <c r="R16">
+        <v>0.1945529438067029</v>
+      </c>
+      <c r="S16">
+        <v>0.3257185303750837</v>
+      </c>
+      <c r="T16">
+        <v>0.05164301093709152</v>
+      </c>
+      <c r="U16">
+        <v>0.2595046355323197</v>
+      </c>
+      <c r="V16">
+        <v>0.05821255792746698</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>0.00369689999999423</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.02445315695284036</v>
+      </c>
+      <c r="F17">
+        <v>9.976314890919284</v>
+      </c>
+      <c r="G17">
+        <v>152.8890126479021</v>
+      </c>
+      <c r="H17">
+        <v>5.1266704764102</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="N17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="O17">
+        <v>64.66030518714234</v>
+      </c>
+      <c r="P17">
+        <v>4.401789054156507</v>
+      </c>
+      <c r="Q17">
+        <v>0.01110801989277991</v>
+      </c>
+      <c r="R17">
+        <v>0.08332230837669576</v>
+      </c>
+      <c r="S17">
+        <v>0.06854395460429803</v>
+      </c>
+      <c r="T17">
+        <v>0.04656632798520489</v>
+      </c>
+      <c r="U17">
+        <v>0.2504144834306493</v>
+      </c>
+      <c r="V17">
+        <v>0.02073176783166995</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>0.003880500000008169</v>
+      </c>
+      <c r="Y17">
+        <v>21</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>0.04842844817862897</v>
+      </c>
+      <c r="F18">
+        <v>9.800591402441007</v>
+      </c>
+      <c r="G18">
+        <v>40.02525011688356</v>
+      </c>
+      <c r="H18">
+        <v>8.931289575083387</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="N18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="O18">
+        <v>27.67327921457818</v>
+      </c>
+      <c r="P18">
+        <v>17.37932139831303</v>
+      </c>
+      <c r="Q18">
+        <v>0.0132020134090307</v>
+      </c>
+      <c r="R18">
+        <v>0.10760205614834</v>
+      </c>
+      <c r="S18">
+        <v>0.1138548336703975</v>
+      </c>
+      <c r="T18">
+        <v>0.1302796182036684</v>
+      </c>
+      <c r="U18">
+        <v>0.212786606503939</v>
+      </c>
+      <c r="V18">
+        <v>0.1672743170879682</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18">
+        <v>0.001681900000022551</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9175548313192</v>
+      </c>
+      <c r="F19">
+        <v>9.931320858606783</v>
+      </c>
+      <c r="G19">
+        <v>52.71244060665078</v>
+      </c>
+      <c r="H19">
+        <v>9.420001540218227</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="N19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="O19">
+        <v>35.62649152459657</v>
+      </c>
+      <c r="P19">
+        <v>17.42438516302036</v>
+      </c>
+      <c r="Q19">
+        <v>0.01359919201907272</v>
+      </c>
+      <c r="R19">
+        <v>0.1166362327308317</v>
+      </c>
+      <c r="S19">
+        <v>0.1464930896348048</v>
+      </c>
+      <c r="T19">
+        <v>0.1055514083683945</v>
+      </c>
+      <c r="U19">
+        <v>0.2577050566150604</v>
+      </c>
+      <c r="V19">
+        <v>0.03553458498787034</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19">
+        <v>0.00210569999998711</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.8377826516203</v>
+      </c>
+      <c r="F20">
+        <v>10.22011424364659</v>
+      </c>
+      <c r="G20">
+        <v>116.9300020001907</v>
+      </c>
+      <c r="H20">
+        <v>9.405557644764407</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="N20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="O20">
+        <v>77.46084766813253</v>
+      </c>
+      <c r="P20">
+        <v>11.47804279475005</v>
+      </c>
+      <c r="Q20">
+        <v>0.01414982680993707</v>
+      </c>
+      <c r="R20">
+        <v>0.1983038381783705</v>
+      </c>
+      <c r="S20">
+        <v>0.2457899414167446</v>
+      </c>
+      <c r="T20">
+        <v>0.1219609707563953</v>
+      </c>
+      <c r="U20">
+        <v>0.2556381520189175</v>
+      </c>
+      <c r="V20">
+        <v>0.1732890872071537</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>0.00417350000000738</v>
+      </c>
+      <c r="Y20">
+        <v>22</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9957585983569</v>
+      </c>
+      <c r="F21">
+        <v>9.917282124805963</v>
+      </c>
+      <c r="G21">
+        <v>17.4618245339392</v>
+      </c>
+      <c r="H21">
+        <v>12.24322304094069</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="N21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="O21">
+        <v>14.66537059037744</v>
+      </c>
+      <c r="P21">
+        <v>22.0335763969982</v>
+      </c>
+      <c r="Q21">
+        <v>0.01364206705263649</v>
+      </c>
+      <c r="R21">
+        <v>0.1444447971580795</v>
+      </c>
+      <c r="S21">
+        <v>0.09217775582592459</v>
+      </c>
+      <c r="T21">
+        <v>0.2476945677549881</v>
+      </c>
+      <c r="U21">
+        <v>0.2411639642875917</v>
+      </c>
+      <c r="V21">
+        <v>0.03022225676513592</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>0.002287700000010773</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>0.0741756309740762</v>
+      </c>
+      <c r="F22">
+        <v>9.773981537291194</v>
+      </c>
+      <c r="G22">
+        <v>105.8174892615881</v>
+      </c>
+      <c r="H22">
+        <v>13.33714423393835</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="N22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="O22">
+        <v>80.43157160170962</v>
+      </c>
+      <c r="P22">
+        <v>16.8156073438912</v>
+      </c>
+      <c r="Q22">
+        <v>0.01417397050721724</v>
+      </c>
+      <c r="R22">
+        <v>0.2564720592073837</v>
+      </c>
+      <c r="S22">
+        <v>0.4411855473599536</v>
+      </c>
+      <c r="T22">
+        <v>0.1530536760588207</v>
+      </c>
+      <c r="U22">
+        <v>0.2358137221877569</v>
+      </c>
+      <c r="V22">
+        <v>0.1366349867154892</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <v>0.004052799999982426</v>
+      </c>
+      <c r="Y22">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>359.9244841079935</v>
+      </c>
+      <c r="F23">
+        <v>10.13868834092952</v>
+      </c>
+      <c r="G23">
+        <v>9.347958438024536</v>
+      </c>
+      <c r="H23">
+        <v>6.708040058983926</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="N23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="O23">
+        <v>9.05481212149199</v>
+      </c>
+      <c r="P23">
+        <v>15.66022061579733</v>
+      </c>
+      <c r="Q23">
+        <v>0.01130788846271495</v>
+      </c>
+      <c r="R23">
+        <v>0.1410858816639669</v>
+      </c>
+      <c r="S23">
+        <v>0.04675390488220629</v>
+      </c>
+      <c r="T23">
+        <v>0.231446877105956</v>
+      </c>
+      <c r="U23">
+        <v>0.2532668520387372</v>
+      </c>
+      <c r="V23">
+        <v>0.1947651514622771</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>0.001467700000006289</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.01725491608055291</v>
+      </c>
+      <c r="F24">
+        <v>10.18242666968832</v>
+      </c>
+      <c r="G24">
+        <v>38.14488792406252</v>
+      </c>
+      <c r="H24">
+        <v>8.732187614673306</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="N24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="O24">
+        <v>25.81253749224256</v>
+      </c>
+      <c r="P24">
+        <v>17.55896462929137</v>
+      </c>
+      <c r="Q24">
+        <v>0.01358204341891323</v>
+      </c>
+      <c r="R24">
+        <v>0.1122658469709523</v>
+      </c>
+      <c r="S24">
+        <v>0.1104025884756813</v>
+      </c>
+      <c r="T24">
+        <v>0.1399891987046161</v>
+      </c>
+      <c r="U24">
+        <v>0.275647013628866</v>
+      </c>
+      <c r="V24">
+        <v>0.05613608693711924</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>0.001681999999988193</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.9845214540121</v>
+      </c>
+      <c r="F25">
+        <v>9.910672082791789</v>
+      </c>
+      <c r="G25">
+        <v>93.13011668116037</v>
+      </c>
+      <c r="H25">
+        <v>14.21399254820619</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="N25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="O25">
+        <v>70.72887783750156</v>
+      </c>
+      <c r="P25">
+        <v>19.27939526700189</v>
+      </c>
+      <c r="Q25">
+        <v>0.01470100189846234</v>
+      </c>
+      <c r="R25">
+        <v>0.2319566312945786</v>
+      </c>
+      <c r="S25">
+        <v>0.4316002316423297</v>
+      </c>
+      <c r="T25">
+        <v>0.06767826023012927</v>
+      </c>
+      <c r="U25">
+        <v>0.229017969458701</v>
+      </c>
+      <c r="V25">
+        <v>0.05797913499057861</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>0.003590000000002647</v>
+      </c>
+      <c r="Y25">
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.9734455307544</v>
+      </c>
+      <c r="F26">
+        <v>9.98511190804642</v>
+      </c>
+      <c r="G26">
+        <v>172.7692366080518</v>
+      </c>
+      <c r="H26">
+        <v>11.37962495189608</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="N26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="O26">
+        <v>154.9721919167357</v>
+      </c>
+      <c r="P26">
+        <v>6.818436273534456</v>
+      </c>
+      <c r="Q26">
+        <v>0.005109338252305811</v>
+      </c>
+      <c r="R26">
+        <v>0.05463498070650813</v>
+      </c>
+      <c r="S26">
+        <v>0.02036140313407007</v>
+      </c>
+      <c r="T26">
+        <v>0.075346407136894</v>
+      </c>
+      <c r="U26">
+        <v>0.2434397452159621</v>
+      </c>
+      <c r="V26">
+        <v>0.009977450505111535</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>0.005057899999997062</v>
+      </c>
+      <c r="Y26">
+        <v>26</v>
+      </c>
+      <c r="Z26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>0.05675891872632467</v>
+      </c>
+      <c r="F27">
+        <v>9.941853157677613</v>
+      </c>
+      <c r="G27">
+        <v>156.7549159998561</v>
+      </c>
+      <c r="H27">
+        <v>9.899087002245318</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="N27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="O27">
+        <v>121.4498165406224</v>
+      </c>
+      <c r="P27">
+        <v>6.879039136269659</v>
+      </c>
+      <c r="Q27">
+        <v>0.007050938140614011</v>
+      </c>
+      <c r="R27">
+        <v>0.1363712462970214</v>
+      </c>
+      <c r="S27">
+        <v>0.09033930068989987</v>
+      </c>
+      <c r="T27">
+        <v>0.1617977297401943</v>
+      </c>
+      <c r="U27">
+        <v>0.2672551479316092</v>
+      </c>
+      <c r="V27">
+        <v>0.05291285270731896</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>0.004590799999988349</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>0.03207720280778142</v>
+      </c>
+      <c r="F28">
+        <v>10.05641478413008</v>
+      </c>
+      <c r="G28">
+        <v>55.72621335471774</v>
+      </c>
+      <c r="H28">
+        <v>9.212817909691545</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="N28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="O28">
+        <v>37.03687396898647</v>
+      </c>
+      <c r="P28">
+        <v>17.11982567437117</v>
+      </c>
+      <c r="Q28">
+        <v>0.01364298460983147</v>
+      </c>
+      <c r="R28">
+        <v>0.1186220114942536</v>
+      </c>
+      <c r="S28">
+        <v>0.1497174721372411</v>
+      </c>
+      <c r="T28">
+        <v>0.09898326517489926</v>
+      </c>
+      <c r="U28">
+        <v>0.2400219313320475</v>
+      </c>
+      <c r="V28">
+        <v>0.02820104594084979</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.001885299999997869</v>
+      </c>
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.901521332807</v>
+      </c>
+      <c r="F29">
+        <v>9.994699440707585</v>
+      </c>
+      <c r="G29">
+        <v>76.60996911850253</v>
+      </c>
+      <c r="H29">
+        <v>12.8305545504353</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="N29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="O29">
+        <v>55.84625608943987</v>
+      </c>
+      <c r="P29">
+        <v>19.4933370674951</v>
+      </c>
+      <c r="Q29">
+        <v>0.01450618764104556</v>
+      </c>
+      <c r="R29">
+        <v>0.1735433017014852</v>
+      </c>
+      <c r="S29">
+        <v>0.2974208637630401</v>
+      </c>
+      <c r="T29">
+        <v>0.05623130164341118</v>
+      </c>
+      <c r="U29">
+        <v>0.2588126007749615</v>
+      </c>
+      <c r="V29">
+        <v>0.02527597197096062</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>0.002559099999984937</v>
+      </c>
+      <c r="Y29">
+        <v>13</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.9701162275613</v>
+      </c>
+      <c r="F30">
+        <v>10.08605657478957</v>
+      </c>
+      <c r="G30">
+        <v>131.1679156690043</v>
+      </c>
+      <c r="H30">
+        <v>9.864867114516807</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="N30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="O30">
+        <v>91.83471571456472</v>
+      </c>
+      <c r="P30">
+        <v>10.08169471674618</v>
+      </c>
+      <c r="Q30">
+        <v>0.01379322289785002</v>
+      </c>
+      <c r="R30">
+        <v>0.2529937559300932</v>
+      </c>
+      <c r="S30">
+        <v>0.2784677961845009</v>
+      </c>
+      <c r="T30">
+        <v>0.2232156715729075</v>
+      </c>
+      <c r="U30">
+        <v>0.2395339948198099</v>
+      </c>
+      <c r="V30">
+        <v>0.06113910951746698</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>0.004360399999995934</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>359.9363552779786</v>
+      </c>
+      <c r="F31">
+        <v>10.19322548775714</v>
+      </c>
+      <c r="G31">
+        <v>154.9398881553253</v>
+      </c>
+      <c r="H31">
+        <v>6.61206891652366</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="N31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="O31">
+        <v>85.07734395534182</v>
+      </c>
+      <c r="P31">
+        <v>4.536665137119433</v>
+      </c>
+      <c r="Q31">
+        <v>0.0132753451530138</v>
+      </c>
+      <c r="R31">
+        <v>0.1590749073783854</v>
+      </c>
+      <c r="S31">
+        <v>0.113732655704063</v>
+      </c>
+      <c r="T31">
+        <v>0.1248824458108856</v>
+      </c>
+      <c r="U31">
+        <v>0.2514451425775212</v>
+      </c>
+      <c r="V31">
+        <v>0.1479671394075038</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31">
+        <v>0.00448859999997353</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.03618442427184498</v>
+      </c>
+      <c r="F32">
+        <v>9.89784278587338</v>
+      </c>
+      <c r="G32">
+        <v>115.918879845871</v>
+      </c>
+      <c r="H32">
+        <v>7.450295720764061</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="N32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="O32">
+        <v>69.89761158371242</v>
+      </c>
+      <c r="P32">
+        <v>9.8157603863364</v>
+      </c>
+      <c r="Q32">
+        <v>0.01257835204606401</v>
+      </c>
+      <c r="R32">
+        <v>0.1420140501253633</v>
+      </c>
+      <c r="S32">
+        <v>0.1644092116915848</v>
+      </c>
+      <c r="T32">
+        <v>0.07169814232799587</v>
+      </c>
+      <c r="U32">
+        <v>0.2488597393744657</v>
+      </c>
+      <c r="V32">
+        <v>0.07146360659205089</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>0.003747099999998227</v>
+      </c>
+      <c r="Y32">
+        <v>21</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.08119352681222282</v>
+      </c>
+      <c r="F33">
+        <v>9.893393157088665</v>
+      </c>
+      <c r="G33">
+        <v>51.20656612015559</v>
+      </c>
+      <c r="H33">
+        <v>14.37621913178404</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>90</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="N33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="O33">
+        <v>38.97173879219743</v>
+      </c>
+      <c r="P33">
+        <v>23.2621599613964</v>
+      </c>
+      <c r="Q33">
+        <v>0.0146993072299044</v>
+      </c>
+      <c r="R33">
+        <v>0.1537478677771883</v>
+      </c>
+      <c r="S33">
+        <v>0.2433071586808518</v>
+      </c>
+      <c r="T33">
+        <v>0.1578388560263708</v>
+      </c>
+      <c r="U33">
+        <v>0.2565115778908945</v>
+      </c>
+      <c r="V33">
+        <v>0.06445844547589544</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>0.001768099999992501</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>359.8822947945092</v>
+      </c>
+      <c r="F34">
+        <v>10.17414140353339</v>
+      </c>
+      <c r="G34">
+        <v>154.1355548622998</v>
+      </c>
+      <c r="H34">
+        <v>7.677969061570354</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="N34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="O34">
+        <v>98.06985607039285</v>
+      </c>
+      <c r="P34">
+        <v>5.220606030366494</v>
+      </c>
+      <c r="Q34">
+        <v>0.01391017051013363</v>
+      </c>
+      <c r="R34">
+        <v>0.2288620898446788</v>
+      </c>
+      <c r="S34">
+        <v>0.1587549323456009</v>
+      </c>
+      <c r="T34">
+        <v>0.2106713353283851</v>
+      </c>
+      <c r="U34">
+        <v>0.2522300590322289</v>
+      </c>
+      <c r="V34">
+        <v>0.1455328028812748</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <v>0.005263200000001689</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.1554963200681155</v>
+      </c>
+      <c r="F35">
+        <v>9.9932773242565</v>
+      </c>
+      <c r="G35">
+        <v>45.07170716371066</v>
+      </c>
+      <c r="H35">
+        <v>8.123611844361626</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="N35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="O35">
+        <v>29.5931058819091</v>
+      </c>
+      <c r="P35">
+        <v>16.40076765045485</v>
+      </c>
+      <c r="Q35">
+        <v>0.01321761067822047</v>
+      </c>
+      <c r="R35">
+        <v>0.1059844635055072</v>
+      </c>
+      <c r="S35">
+        <v>0.1134263215873733</v>
+      </c>
+      <c r="T35">
+        <v>0.116059426690623</v>
+      </c>
+      <c r="U35">
+        <v>0.2401654080352951</v>
+      </c>
+      <c r="V35">
+        <v>0.1265834577111735</v>
+      </c>
+      <c r="W35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>0.001770900000025222</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="Z35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9893607357425</v>
+      </c>
+      <c r="F36">
+        <v>10.15117210127571</v>
+      </c>
+      <c r="G36">
+        <v>7.133950076081105</v>
+      </c>
+      <c r="H36">
+        <v>12.12267288548855</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="N36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="O36">
+        <v>7.712291887437901</v>
+      </c>
+      <c r="P36">
+        <v>22.16993975612337</v>
+      </c>
+      <c r="Q36">
+        <v>0.01275678333822387</v>
+      </c>
+      <c r="R36">
+        <v>0.2000906390375952</v>
+      </c>
+      <c r="S36">
+        <v>0.06192509767649411</v>
+      </c>
+      <c r="T36">
+        <v>0.3466470118547836</v>
+      </c>
+      <c r="U36">
+        <v>0.2388167706662273</v>
+      </c>
+      <c r="V36">
+        <v>0.08291986918053773</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>0.001410199999980932</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>359.9613135938011</v>
+      </c>
+      <c r="F37">
+        <v>10.05753243665122</v>
+      </c>
+      <c r="G37">
+        <v>82.79855546666597</v>
+      </c>
+      <c r="H37">
+        <v>6.755040862272945</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="N37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="O37">
+        <v>47.42634890520146</v>
+      </c>
+      <c r="P37">
+        <v>12.50090230587179</v>
+      </c>
+      <c r="Q37">
+        <v>0.01281041679712129</v>
+      </c>
+      <c r="R37">
+        <v>0.1078017461418713</v>
+      </c>
+      <c r="S37">
+        <v>0.1308982492394207</v>
+      </c>
+      <c r="T37">
+        <v>0.04523562658976844</v>
+      </c>
+      <c r="U37">
+        <v>0.2608579449574636</v>
+      </c>
+      <c r="V37">
+        <v>0.07296046591336698</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <v>0.002414999999984957</v>
+      </c>
+      <c r="Y37">
+        <v>12</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>0.1171421290509574</v>
+      </c>
+      <c r="F38">
+        <v>9.537584003050053</v>
+      </c>
+      <c r="G38">
+        <v>131.3014635741976</v>
+      </c>
+      <c r="H38">
+        <v>9.549735073930565</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>90</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="N38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="O38">
+        <v>93.7509702170473</v>
+      </c>
+      <c r="P38">
+        <v>9.820045165327487</v>
+      </c>
+      <c r="Q38">
+        <v>0.01238431561174707</v>
+      </c>
+      <c r="R38">
+        <v>0.2331277915090329</v>
+      </c>
+      <c r="S38">
+        <v>0.2629802339004798</v>
+      </c>
+      <c r="T38">
+        <v>0.213909816361433</v>
+      </c>
+      <c r="U38">
+        <v>0.2752586691307067</v>
+      </c>
+      <c r="V38">
+        <v>0.2663802282484237</v>
+      </c>
+      <c r="W38" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38">
+        <v>0.004768399999989015</v>
+      </c>
+      <c r="Y38">
+        <v>26</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.02217718564140072</v>
+      </c>
+      <c r="F39">
+        <v>9.906030295110519</v>
+      </c>
+      <c r="G39">
+        <v>170.1600216082049</v>
+      </c>
+      <c r="H39">
+        <v>8.458308444137344</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>90</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="N39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="O39">
+        <v>132.9831772261171</v>
+      </c>
+      <c r="P39">
+        <v>3.976314168480171</v>
+      </c>
+      <c r="Q39">
+        <v>0.005596028196206404</v>
+      </c>
+      <c r="R39">
+        <v>0.08807081254099533</v>
+      </c>
+      <c r="S39">
+        <v>0.0348854698352831</v>
+      </c>
+      <c r="T39">
+        <v>0.09888983975443559</v>
+      </c>
+      <c r="U39">
+        <v>0.2423625528593956</v>
+      </c>
+      <c r="V39">
+        <v>0.08495694783337794</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>0.00473800000000324</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.8879275360488</v>
+      </c>
+      <c r="F40">
+        <v>10.12113318004269</v>
+      </c>
+      <c r="G40">
+        <v>69.43040111686096</v>
+      </c>
+      <c r="H40">
+        <v>13.52492827705684</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="N40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="O40">
+        <v>51.06263251464177</v>
+      </c>
+      <c r="P40">
+        <v>21.01458955941177</v>
+      </c>
+      <c r="Q40">
+        <v>0.01486100228913888</v>
+      </c>
+      <c r="R40">
+        <v>0.1721554951038649</v>
+      </c>
+      <c r="S40">
+        <v>0.2946572913604011</v>
+      </c>
+      <c r="T40">
+        <v>0.08627810950029818</v>
+      </c>
+      <c r="U40">
+        <v>0.2655962857521558</v>
+      </c>
+      <c r="V40">
+        <v>0.07827425031496928</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40">
+        <v>0.002483300000022837</v>
+      </c>
+      <c r="Y40">
+        <v>12</v>
+      </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.9797190902848</v>
+      </c>
+      <c r="F41">
+        <v>10.00052444600162</v>
+      </c>
+      <c r="G41">
+        <v>98.41676635913686</v>
+      </c>
+      <c r="H41">
+        <v>12.59395165488048</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="N41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="O41">
+        <v>72.2080392255689</v>
+      </c>
+      <c r="P41">
+        <v>16.92643814481788</v>
+      </c>
+      <c r="Q41">
+        <v>0.01441961182734162</v>
+      </c>
+      <c r="R41">
+        <v>0.2205880385024301</v>
+      </c>
+      <c r="S41">
+        <v>0.3689323661505808</v>
+      </c>
+      <c r="T41">
+        <v>0.08554674530638069</v>
+      </c>
+      <c r="U41">
+        <v>0.2614704911427317</v>
+      </c>
+      <c r="V41">
+        <v>0.008981679519365127</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>0.003949500000004491</v>
+      </c>
+      <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>359.9754120612041</v>
+      </c>
+      <c r="F42">
+        <v>10.04395642859967</v>
+      </c>
+      <c r="G42">
+        <v>72.56111507874819</v>
+      </c>
+      <c r="H42">
+        <v>3.753733595631722</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="N42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="O42">
+        <v>31.90024574893043</v>
+      </c>
+      <c r="P42">
+        <v>10.33904523023202</v>
+      </c>
+      <c r="Q42">
+        <v>0.0117484450384193</v>
+      </c>
+      <c r="R42">
+        <v>0.07533490592584531</v>
+      </c>
+      <c r="S42">
+        <v>0.07151847140514445</v>
+      </c>
+      <c r="T42">
+        <v>0.06844436334557064</v>
+      </c>
+      <c r="U42">
+        <v>0.2421726781435602</v>
+      </c>
+      <c r="V42">
+        <v>0.1138578760868468</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>0.001671200000004092</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.1284424258668847</v>
+      </c>
+      <c r="F43">
+        <v>9.977881234294159</v>
+      </c>
+      <c r="G43">
+        <v>46.10712270753322</v>
+      </c>
+      <c r="H43">
+        <v>3.339569931716775</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="N43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="O43">
+        <v>21.92207190351375</v>
+      </c>
+      <c r="P43">
+        <v>10.9302720132707</v>
+      </c>
+      <c r="Q43">
+        <v>0.01136657108457533</v>
+      </c>
+      <c r="R43">
+        <v>0.07619947997543013</v>
+      </c>
+      <c r="S43">
+        <v>0.05620840495518575</v>
+      </c>
+      <c r="T43">
+        <v>0.1011955937404787</v>
+      </c>
+      <c r="U43">
+        <v>0.2503362531387885</v>
+      </c>
+      <c r="V43">
+        <v>0.2297642417919029</v>
+      </c>
+      <c r="W43" t="s">
+        <v>27</v>
+      </c>
+      <c r="X43">
+        <v>0.002463699999992741</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>0.1128288495402439</v>
+      </c>
+      <c r="F44">
+        <v>10.05451711132315</v>
+      </c>
+      <c r="G44">
+        <v>67.68829739876735</v>
+      </c>
+      <c r="H44">
+        <v>14.32547624968443</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="N44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="O44">
+        <v>50.75356337965572</v>
+      </c>
+      <c r="P44">
+        <v>22.0726999636791</v>
+      </c>
+      <c r="Q44">
+        <v>0.01471425511140755</v>
+      </c>
+      <c r="R44">
+        <v>0.1771451186066825</v>
+      </c>
+      <c r="S44">
+        <v>0.314478018166629</v>
+      </c>
+      <c r="T44">
+        <v>0.09870080891589798</v>
+      </c>
+      <c r="U44">
+        <v>0.2344223374290236</v>
+      </c>
+      <c r="V44">
+        <v>0.03907796461687219</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44">
+        <v>0.002733299999988503</v>
+      </c>
+      <c r="Y44">
+        <v>12</v>
+      </c>
+      <c r="Z44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.9615337181265</v>
+      </c>
+      <c r="F45">
+        <v>9.887969620819526</v>
+      </c>
+      <c r="G45">
+        <v>20.44933437164733</v>
+      </c>
+      <c r="H45">
+        <v>10.40923664060918</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="N45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="O45">
+        <v>16.24186799172952</v>
+      </c>
+      <c r="P45">
+        <v>19.76432235550595</v>
+      </c>
+      <c r="Q45">
+        <v>0.0132193687615943</v>
+      </c>
+      <c r="R45">
+        <v>0.1274268360236187</v>
+      </c>
+      <c r="S45">
+        <v>0.08685550738834555</v>
+      </c>
+      <c r="T45">
+        <v>0.2084660042525497</v>
+      </c>
+      <c r="U45">
+        <v>0.2445255255191211</v>
+      </c>
+      <c r="V45">
+        <v>0.04829398523151031</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <v>0.001586500000001934</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.02289175381290167</v>
+      </c>
+      <c r="F46">
+        <v>10.11484431501328</v>
+      </c>
+      <c r="G46">
+        <v>150.2467455638418</v>
+      </c>
+      <c r="H46">
+        <v>4.337379076869587</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="N46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="O46">
+        <v>51.58472469303594</v>
+      </c>
+      <c r="P46">
+        <v>4.795601172494483</v>
+      </c>
+      <c r="Q46">
+        <v>0.01070331245431257</v>
+      </c>
+      <c r="R46">
+        <v>0.06392990944983448</v>
+      </c>
+      <c r="S46">
+        <v>0.05636560050941033</v>
+      </c>
+      <c r="T46">
+        <v>0.03084328654265821</v>
+      </c>
+      <c r="U46">
+        <v>0.2495143078176408</v>
+      </c>
+      <c r="V46">
+        <v>0.09230392097851264</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>0.003008100000016611</v>
+      </c>
+      <c r="Y46">
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9815510792097</v>
+      </c>
+      <c r="F47">
+        <v>9.989791374156928</v>
+      </c>
+      <c r="G47">
+        <v>178.0141782021282</v>
+      </c>
+      <c r="H47">
+        <v>9.585682514399727</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="N47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="O47">
+        <v>159.2018072556333</v>
+      </c>
+      <c r="P47">
+        <v>4.409841460957436</v>
+      </c>
+      <c r="Q47">
+        <v>0.004891192540475112</v>
+      </c>
+      <c r="R47">
+        <v>0.04860194181200612</v>
+      </c>
+      <c r="S47">
+        <v>0.01212100392064763</v>
+      </c>
+      <c r="T47">
+        <v>0.05946138867463342</v>
+      </c>
+      <c r="U47">
+        <v>0.236051344596518</v>
+      </c>
+      <c r="V47">
+        <v>0.008471226121410436</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>0.005259899999998652</v>
+      </c>
+      <c r="Y47">
+        <v>27</v>
+      </c>
+      <c r="Z47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>0.05283921784537689</v>
+      </c>
+      <c r="F48">
+        <v>9.81517636840427</v>
+      </c>
+      <c r="G48">
+        <v>141.2348469303466</v>
+      </c>
+      <c r="H48">
+        <v>10.33965632113541</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="N48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="O48">
+        <v>105.4646020622316</v>
+      </c>
+      <c r="P48">
+        <v>9.284403446869922</v>
+      </c>
+      <c r="Q48">
+        <v>0.01029552689225702</v>
+      </c>
+      <c r="R48">
+        <v>0.2173565494701656</v>
+      </c>
+      <c r="S48">
+        <v>0.2130907505461662</v>
+      </c>
+      <c r="T48">
+        <v>0.2363030242729493</v>
+      </c>
+      <c r="U48">
+        <v>0.2573619480354906</v>
+      </c>
+      <c r="V48">
+        <v>0.1198011201330395</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>0.005297000000012986</v>
+      </c>
+      <c r="Y48">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.03171297670483186</v>
+      </c>
+      <c r="F49">
+        <v>10.06381862111193</v>
+      </c>
+      <c r="G49">
+        <v>20.47077207038669</v>
+      </c>
+      <c r="H49">
+        <v>14.59802069168851</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="N49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="O49">
+        <v>17.01772410324636</v>
+      </c>
+      <c r="P49">
+        <v>24.951367913178</v>
+      </c>
+      <c r="Q49">
+        <v>0.01463552208769183</v>
+      </c>
+      <c r="R49">
+        <v>0.1554777865575683</v>
+      </c>
+      <c r="S49">
+        <v>0.1221646777035012</v>
+      </c>
+      <c r="T49">
+        <v>0.2695844498723916</v>
+      </c>
+      <c r="U49">
+        <v>0.248935308552508</v>
+      </c>
+      <c r="V49">
+        <v>0.02496349645808075</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>0.001967000000007602</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>359.9943925214735</v>
+      </c>
+      <c r="F50">
+        <v>9.775185656553607</v>
+      </c>
+      <c r="G50">
+        <v>3.004376396658544</v>
+      </c>
+      <c r="H50">
+        <v>13.80909341429073</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>90</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="N50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="O50">
+        <v>4.91346562356268</v>
+      </c>
+      <c r="P50">
+        <v>23.79439887825963</v>
+      </c>
+      <c r="Q50">
+        <v>0.01182256394152459</v>
+      </c>
+      <c r="R50">
+        <v>0.2617329776883555</v>
+      </c>
+      <c r="S50">
+        <v>0.05219033240844397</v>
+      </c>
+      <c r="T50">
+        <v>0.4455348251770039</v>
+      </c>
+      <c r="U50">
+        <v>0.2546588767580429</v>
+      </c>
+      <c r="V50">
+        <v>0.04662143854050239</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>0.001462300000014238</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>359.9768540792134</v>
+      </c>
+      <c r="F51">
+        <v>9.916290104478328</v>
+      </c>
+      <c r="G51">
+        <v>53.72305237616528</v>
+      </c>
+      <c r="H51">
+        <v>5.957745989810675</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="N51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="O51">
+        <v>31.00728595945061</v>
+      </c>
+      <c r="P51">
+        <v>13.45241048787581</v>
+      </c>
+      <c r="Q51">
+        <v>0.0124746129313244</v>
+      </c>
+      <c r="R51">
+        <v>0.09031784459313288</v>
+      </c>
+      <c r="S51">
+        <v>0.0926852544449069</v>
+      </c>
+      <c r="T51">
+        <v>0.08873087402229063</v>
+      </c>
+      <c r="U51">
+        <v>0.2276771838699473</v>
+      </c>
+      <c r="V51">
+        <v>0.03786026979864065</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>0.001618100000001732</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>359.9799625542943</v>
+      </c>
+      <c r="F52">
+        <v>10.01556914007623</v>
+      </c>
+      <c r="G52">
+        <v>88.84849123395098</v>
+      </c>
+      <c r="H52">
+        <v>5.786220791833158</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="N52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="O52">
+        <v>47.08717673920726</v>
+      </c>
+      <c r="P52">
+        <v>11.07198128280799</v>
+      </c>
+      <c r="Q52">
+        <v>0.01238148460366339</v>
+      </c>
+      <c r="R52">
+        <v>0.09762125556298792</v>
+      </c>
+      <c r="S52">
+        <v>0.1120038967067394</v>
+      </c>
+      <c r="T52">
+        <v>0.04168634236806745</v>
+      </c>
+      <c r="U52">
+        <v>0.2450581034088378</v>
+      </c>
+      <c r="V52">
+        <v>0.04833092322191299</v>
+      </c>
+      <c r="W52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>0.002388300000006893</v>
+      </c>
+      <c r="Y52">
+        <v>12</v>
+      </c>
+      <c r="Z52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0.0001538329042783386</v>
+      </c>
+      <c r="F53">
+        <v>9.958486112256967</v>
+      </c>
+      <c r="G53">
+        <v>120.6627444860811</v>
+      </c>
+      <c r="H53">
+        <v>3.513950610013413</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>90</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="N53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="O53">
+        <v>42.74129809033042</v>
+      </c>
+      <c r="P53">
+        <v>7.069000044306231</v>
+      </c>
+      <c r="Q53">
+        <v>0.0109932165659741</v>
+      </c>
+      <c r="R53">
+        <v>0.06580630206299946</v>
+      </c>
+      <c r="S53">
+        <v>0.06351513650043181</v>
+      </c>
+      <c r="T53">
+        <v>0.03723767781003176</v>
+      </c>
+      <c r="U53">
+        <v>0.2432916298678567</v>
+      </c>
+      <c r="V53">
+        <v>0.0742317215392638</v>
+      </c>
+      <c r="W53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X53">
+        <v>0.002667800000011766</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+      <c r="Z53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.9161390704808</v>
+      </c>
+      <c r="F54">
+        <v>10.11519676354751</v>
+      </c>
+      <c r="G54">
+        <v>146.8705368122276</v>
+      </c>
+      <c r="H54">
+        <v>3.371693160787768</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>90</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="N54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="O54">
+        <v>39.32097021545572</v>
+      </c>
+      <c r="P54">
+        <v>5.313442649554453</v>
+      </c>
+      <c r="Q54">
+        <v>0.01036052802922785</v>
+      </c>
+      <c r="R54">
+        <v>0.0524643062810107</v>
+      </c>
+      <c r="S54">
+        <v>0.04697234364749267</v>
+      </c>
+      <c r="T54">
+        <v>0.03647445289880448</v>
+      </c>
+      <c r="U54">
+        <v>0.2309624378056998</v>
+      </c>
+      <c r="V54">
+        <v>0.1506914558191008</v>
+      </c>
+      <c r="W54" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <v>0.002612599999991971</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>0.0009926974871216864</v>
+      </c>
+      <c r="F55">
+        <v>9.842383202319315</v>
+      </c>
+      <c r="G55">
+        <v>152.4813845292455</v>
+      </c>
+      <c r="H55">
+        <v>9.530102954112646</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="N55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="O55">
+        <v>114.3139678352446</v>
+      </c>
+      <c r="P55">
+        <v>7.082753911700282</v>
+      </c>
+      <c r="Q55">
+        <v>0.008291328016052677</v>
+      </c>
+      <c r="R55">
+        <v>0.1696568889327493</v>
+      </c>
+      <c r="S55">
+        <v>0.1257754852623412</v>
+      </c>
+      <c r="T55">
+        <v>0.1918983989345456</v>
+      </c>
+      <c r="U55">
+        <v>0.2802158115131987</v>
+      </c>
+      <c r="V55">
+        <v>0.09720128495891767</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55">
+        <v>0.004888499999992746</v>
+      </c>
+      <c r="Y55">
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.1142272206196995</v>
+      </c>
+      <c r="F56">
+        <v>9.852946111137044</v>
+      </c>
+      <c r="G56">
+        <v>75.76502735796167</v>
+      </c>
+      <c r="H56">
+        <v>7.119593094468563</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="N56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="O56">
+        <v>45.40781942016128</v>
+      </c>
+      <c r="P56">
+        <v>13.30008915752412</v>
+      </c>
+      <c r="Q56">
+        <v>0.01264601622035938</v>
+      </c>
+      <c r="R56">
+        <v>0.1064261869334073</v>
+      </c>
+      <c r="S56">
+        <v>0.1331919062770834</v>
+      </c>
+      <c r="T56">
+        <v>0.05237365709343633</v>
+      </c>
+      <c r="U56">
+        <v>0.2457673548248603</v>
+      </c>
+      <c r="V56">
+        <v>0.136465046587171</v>
+      </c>
+      <c r="W56" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56">
+        <v>0.00183559999999261</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>359.9562242452741</v>
+      </c>
+      <c r="F57">
+        <v>10.03840103523157</v>
+      </c>
+      <c r="G57">
+        <v>16.8829134681022</v>
+      </c>
+      <c r="H57">
+        <v>14.79191598647235</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="N57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="O57">
+        <v>14.5123499882477</v>
+      </c>
+      <c r="P57">
+        <v>25.21171488892001</v>
+      </c>
+      <c r="Q57">
+        <v>0.01441665138810216</v>
+      </c>
+      <c r="R57">
+        <v>0.1636033420865302</v>
+      </c>
+      <c r="S57">
+        <v>0.1091503056538366</v>
+      </c>
+      <c r="T57">
+        <v>0.29167154194561</v>
+      </c>
+      <c r="U57">
+        <v>0.2443536396338829</v>
+      </c>
+      <c r="V57">
+        <v>0.05406556327691583</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57">
+        <v>0.001622099999991633</v>
+      </c>
+      <c r="Y57">
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.01218127654945595</v>
+      </c>
+      <c r="F58">
+        <v>9.93167007483739</v>
+      </c>
+      <c r="G58">
+        <v>177.3417584956742</v>
+      </c>
+      <c r="H58">
+        <v>6.934720122017055</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="N58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="O58">
+        <v>122.6180674772793</v>
+      </c>
+      <c r="P58">
+        <v>1.850342856819934</v>
+      </c>
+      <c r="Q58">
+        <v>0.005343178275890433</v>
+      </c>
+      <c r="R58">
+        <v>0.06371114880131563</v>
+      </c>
+      <c r="S58">
+        <v>0.02031639154649868</v>
+      </c>
+      <c r="T58">
+        <v>0.06172826516419687</v>
+      </c>
+      <c r="U58">
+        <v>0.2392779086623832</v>
+      </c>
+      <c r="V58">
+        <v>0.1112301085202151</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58">
+        <v>0.005163499999980559</v>
+      </c>
+      <c r="Y58">
+        <v>25</v>
+      </c>
+      <c r="Z58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>359.9549193904595</v>
+      </c>
+      <c r="F59">
+        <v>9.82378057241945</v>
+      </c>
+      <c r="G59">
+        <v>15.28444690969495</v>
+      </c>
+      <c r="H59">
+        <v>6.060861021275895</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>90</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="N59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="O59">
+        <v>12.21852686872379</v>
+      </c>
+      <c r="P59">
+        <v>14.55285224457312</v>
+      </c>
+      <c r="Q59">
+        <v>0.01130983555165137</v>
+      </c>
+      <c r="R59">
+        <v>0.1126918645166191</v>
+      </c>
+      <c r="S59">
+        <v>0.05072719129937706</v>
+      </c>
+      <c r="T59">
+        <v>0.1826214305460568</v>
+      </c>
+      <c r="U59">
+        <v>0.2727230262366476</v>
+      </c>
+      <c r="V59">
+        <v>0.1643025691478873</v>
+      </c>
+      <c r="W59" t="s">
+        <v>27</v>
+      </c>
+      <c r="X59">
+        <v>0.001629100000002381</v>
+      </c>
+      <c r="Y59">
+        <v>8</v>
+      </c>
+      <c r="Z59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.0008149341867449896</v>
+      </c>
+      <c r="F60">
+        <v>9.721461357323783</v>
+      </c>
+      <c r="G60">
+        <v>64.96636662832245</v>
+      </c>
+      <c r="H60">
+        <v>8.193900708238385</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>90</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="N60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="O60">
+        <v>41.81921143151694</v>
+      </c>
+      <c r="P60">
+        <v>15.11675609339221</v>
+      </c>
+      <c r="Q60">
+        <v>0.01293699563512903</v>
+      </c>
+      <c r="R60">
+        <v>0.1094628413870705</v>
+      </c>
+      <c r="S60">
+        <v>0.1424426537554579</v>
+      </c>
+      <c r="T60">
+        <v>0.07087160591155947</v>
+      </c>
+      <c r="U60">
+        <v>0.2350645257591226</v>
+      </c>
+      <c r="V60">
+        <v>0.1638780508362458</v>
+      </c>
+      <c r="W60" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <v>0.001834599999995135</v>
+      </c>
+      <c r="Y60">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.04884110572867992</v>
+      </c>
+      <c r="F61">
+        <v>9.921390884427568</v>
+      </c>
+      <c r="G61">
+        <v>166.8364417597153</v>
+      </c>
+      <c r="H61">
+        <v>4.841938943018866</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>90</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="N61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="O61">
+        <v>56.63935482382841</v>
+      </c>
+      <c r="P61">
+        <v>2.995724754553256</v>
+      </c>
+      <c r="Q61">
+        <v>0.01012992419060532</v>
+      </c>
+      <c r="R61">
+        <v>0.05658693543173817</v>
+      </c>
+      <c r="S61">
+        <v>0.04595403503118439</v>
+      </c>
+      <c r="T61">
+        <v>0.02949057449889876</v>
+      </c>
+      <c r="U61">
+        <v>0.2509966106241023</v>
+      </c>
+      <c r="V61">
+        <v>0.1053919866865707</v>
+      </c>
+      <c r="W61" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>0.003671700000012379</v>
+      </c>
+      <c r="Y61">
+        <v>20</v>
+      </c>
+      <c r="Z61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>359.9371997769478</v>
+      </c>
+      <c r="F62">
+        <v>10.12811106056944</v>
+      </c>
+      <c r="G62">
+        <v>54.47826734415791</v>
+      </c>
+      <c r="H62">
+        <v>5.381023272466707</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>90</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="N62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="O62">
+        <v>29.66272295272185</v>
+      </c>
+      <c r="P62">
+        <v>12.9621035329798</v>
+      </c>
+      <c r="Q62">
+        <v>0.01251545593460863</v>
+      </c>
+      <c r="R62">
+        <v>0.08895833238663588</v>
+      </c>
+      <c r="S62">
+        <v>0.08643027192946688</v>
+      </c>
+      <c r="T62">
+        <v>0.08990490406107431</v>
+      </c>
+      <c r="U62">
+        <v>0.2678460757605093</v>
+      </c>
+      <c r="V62">
+        <v>0.1371561012244645</v>
+      </c>
+      <c r="W62" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62">
+        <v>0.001626200000004019</v>
+      </c>
+      <c r="Y62">
+        <v>8</v>
+      </c>
+      <c r="Z62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.02864579133345126</v>
+      </c>
+      <c r="F63">
+        <v>10.06715308111008</v>
+      </c>
+      <c r="G63">
+        <v>148.3496979408782</v>
+      </c>
+      <c r="H63">
+        <v>5.233541809924125</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="N63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="O63">
+        <v>64.7920756276807</v>
+      </c>
+      <c r="P63">
+        <v>4.941536435465717</v>
+      </c>
+      <c r="Q63">
+        <v>0.01135103853572708</v>
+      </c>
+      <c r="R63">
+        <v>0.0892146723625156</v>
+      </c>
+      <c r="S63">
+        <v>0.07534210825699598</v>
+      </c>
+      <c r="T63">
+        <v>0.04912798382414767</v>
+      </c>
+      <c r="U63">
+        <v>0.2578042724867619</v>
+      </c>
+      <c r="V63">
+        <v>0.07162960186467411</v>
+      </c>
+      <c r="W63" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63">
+        <v>0.003775699999977178</v>
+      </c>
+      <c r="Y63">
+        <v>21</v>
+      </c>
+      <c r="Z63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.04536914276455883</v>
+      </c>
+      <c r="F64">
+        <v>10.22856324582017</v>
+      </c>
+      <c r="G64">
+        <v>6.204822112009865</v>
+      </c>
+      <c r="H64">
+        <v>8.659405527749415</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>90</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="N64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="O64">
+        <v>7.309970987521542</v>
+      </c>
+      <c r="P64">
+        <v>18.08963757497937</v>
+      </c>
+      <c r="Q64">
+        <v>0.01175494946290708</v>
+      </c>
+      <c r="R64">
+        <v>0.1776081828856492</v>
+      </c>
+      <c r="S64">
+        <v>0.04864460494354603</v>
+      </c>
+      <c r="T64">
+        <v>0.2954708539781144</v>
+      </c>
+      <c r="U64">
+        <v>0.2234445432924723</v>
+      </c>
+      <c r="V64">
+        <v>0.07069476981457327</v>
+      </c>
+      <c r="W64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64">
+        <v>0.001535999999987325</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>359.9690064323829</v>
+      </c>
+      <c r="F65">
+        <v>10.09273059384421</v>
+      </c>
+      <c r="G65">
+        <v>99.82724409962219</v>
+      </c>
+      <c r="H65">
+        <v>7.846950085115619</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>25</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="N65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="O65">
+        <v>60.66341244433588</v>
+      </c>
+      <c r="P65">
+        <v>11.97945332250424</v>
+      </c>
+      <c r="Q65">
+        <v>0.01304678078092126</v>
+      </c>
+      <c r="R65">
+        <v>0.1347032742872813</v>
+      </c>
+      <c r="S65">
+        <v>0.1704923369911412</v>
+      </c>
+      <c r="T65">
+        <v>0.04338973818504076</v>
+      </c>
+      <c r="U65">
+        <v>0.2398280793763049</v>
+      </c>
+      <c r="V65">
+        <v>0.04989702103129159</v>
+      </c>
+      <c r="W65" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65">
+        <v>0.003397900000010168</v>
+      </c>
+      <c r="Y65">
+        <v>18</v>
+      </c>
+      <c r="Z65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>0.1318883828541446</v>
+      </c>
+      <c r="F66">
+        <v>10.01572231923434</v>
+      </c>
+      <c r="G66">
+        <v>68.36768529183838</v>
+      </c>
+      <c r="H66">
+        <v>9.745657951179771</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>90</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="N66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="O66">
+        <v>45.85307633082883</v>
+      </c>
+      <c r="P66">
+        <v>16.81348580660811</v>
+      </c>
+      <c r="Q66">
+        <v>0.01359246131464911</v>
+      </c>
+      <c r="R66">
+        <v>0.1311370418194515</v>
+      </c>
+      <c r="S66">
+        <v>0.185019931082065</v>
+      </c>
+      <c r="T66">
+        <v>0.07094707750388526</v>
+      </c>
+      <c r="U66">
+        <v>0.2699571833283754</v>
+      </c>
+      <c r="V66">
+        <v>0.02502972933748755</v>
+      </c>
+      <c r="W66" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66">
+        <v>0.001748099999986152</v>
+      </c>
+      <c r="Y66">
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.06773978780386536</v>
+      </c>
+      <c r="F67">
+        <v>9.980829405504773</v>
+      </c>
+      <c r="G67">
+        <v>38.99589191544659</v>
+      </c>
+      <c r="H67">
+        <v>3.372846679741707</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>90</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="N67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="O67">
+        <v>19.53553429381024</v>
+      </c>
+      <c r="P67">
+        <v>11.15205138377434</v>
+      </c>
+      <c r="Q67">
+        <v>0.01125382825601304</v>
+      </c>
+      <c r="R67">
+        <v>0.07917123332187766</v>
+      </c>
+      <c r="S67">
+        <v>0.05287274628762981</v>
+      </c>
+      <c r="T67">
+        <v>0.1117540769647001</v>
+      </c>
+      <c r="U67">
+        <v>0.2480573034584221</v>
+      </c>
+      <c r="V67">
+        <v>0.02379611015320099</v>
+      </c>
+      <c r="W67" t="s">
+        <v>26</v>
+      </c>
+      <c r="X67">
+        <v>0.001712299999979905</v>
+      </c>
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.9576723306775</v>
+      </c>
+      <c r="F68">
+        <v>9.937347839131222</v>
+      </c>
+      <c r="G68">
+        <v>27.74072420885425</v>
+      </c>
+      <c r="H68">
+        <v>4.518275831894908</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+      <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="N68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="O68">
+        <v>16.91994695615963</v>
+      </c>
+      <c r="P68">
+        <v>12.66810610679018</v>
+      </c>
+      <c r="Q68">
+        <v>0.01142498713758746</v>
+      </c>
+      <c r="R68">
+        <v>0.0899779211120043</v>
+      </c>
+      <c r="S68">
+        <v>0.05443527293567694</v>
+      </c>
+      <c r="T68">
+        <v>0.1352620651911579</v>
+      </c>
+      <c r="U68">
+        <v>0.2453307033618931</v>
+      </c>
+      <c r="V68">
+        <v>0.0811358149744657</v>
+      </c>
+      <c r="W68" t="s">
+        <v>26</v>
+      </c>
+      <c r="X68">
+        <v>0.001632599999993545</v>
+      </c>
+      <c r="Y68">
+        <v>8</v>
+      </c>
+      <c r="Z68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>0.1368586758438986</v>
+      </c>
+      <c r="F69">
+        <v>9.758913163561074</v>
+      </c>
+      <c r="G69">
+        <v>98.10245667013081</v>
+      </c>
+      <c r="H69">
+        <v>12.85637378174697</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="N69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="O69">
+        <v>73.21183221159369</v>
+      </c>
+      <c r="P69">
+        <v>17.2005084566074</v>
+      </c>
+      <c r="Q69">
+        <v>0.01387468826243774</v>
+      </c>
+      <c r="R69">
+        <v>0.2217038319950986</v>
+      </c>
+      <c r="S69">
+        <v>0.3849588223955528</v>
+      </c>
+      <c r="T69">
+        <v>0.08806533331888144</v>
+      </c>
+      <c r="U69">
+        <v>0.2440260465889222</v>
+      </c>
+      <c r="V69">
+        <v>0.1595863001678235</v>
+      </c>
+      <c r="W69" t="s">
+        <v>26</v>
+      </c>
+      <c r="X69">
+        <v>0.003560099999987187</v>
+      </c>
+      <c r="Y69">
+        <v>19</v>
+      </c>
+      <c r="Z69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>359.9570076227092</v>
+      </c>
+      <c r="F70">
+        <v>9.969943675749413</v>
+      </c>
+      <c r="G70">
+        <v>46.76703984265251</v>
+      </c>
+      <c r="H70">
+        <v>3.491598752233547</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>90</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="N70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="O70">
+        <v>22.40865188144262</v>
+      </c>
+      <c r="P70">
+        <v>11.05858186580762</v>
+      </c>
+      <c r="Q70">
+        <v>0.01140126661262291</v>
+      </c>
+      <c r="R70">
+        <v>0.0763744089641727</v>
+      </c>
+      <c r="S70">
+        <v>0.05777251477378511</v>
+      </c>
+      <c r="T70">
+        <v>0.0997735201479333</v>
+      </c>
+      <c r="U70">
+        <v>0.2515902309411837</v>
+      </c>
+      <c r="V70">
+        <v>0.03759959020113092</v>
+      </c>
+      <c r="W70" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70">
+        <v>0.001653799999985495</v>
+      </c>
+      <c r="Y70">
+        <v>8</v>
+      </c>
+      <c r="Z70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>0.1100866588976156</v>
+      </c>
+      <c r="F71">
+        <v>9.696450921515799</v>
+      </c>
+      <c r="G71">
+        <v>52.94828818627261</v>
+      </c>
+      <c r="H71">
+        <v>12.20580146273943</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>90</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="N71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="O71">
+        <v>38.99734618246978</v>
+      </c>
+      <c r="P71">
+        <v>20.46564016802613</v>
+      </c>
+      <c r="Q71">
+        <v>0.01393561537054127</v>
+      </c>
+      <c r="R71">
+        <v>0.1348085627954113</v>
+      </c>
+      <c r="S71">
+        <v>0.2000932822173159</v>
+      </c>
+      <c r="T71">
+        <v>0.125470560219301</v>
+      </c>
+      <c r="U71">
+        <v>0.2613862157372212</v>
+      </c>
+      <c r="V71">
+        <v>0.1950530143201918</v>
+      </c>
+      <c r="W71" t="s">
+        <v>26</v>
+      </c>
+      <c r="X71">
+        <v>0.001850600000011582</v>
+      </c>
+      <c r="Y71">
+        <v>9</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.9871710575214</v>
+      </c>
+      <c r="F72">
+        <v>10.03542057836932</v>
+      </c>
+      <c r="G72">
+        <v>166.8874022461006</v>
+      </c>
+      <c r="H72">
+        <v>13.53107082870137</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>90</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="N72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="O72">
+        <v>149.9738360697143</v>
+      </c>
+      <c r="P72">
+        <v>9.696104338220939</v>
+      </c>
+      <c r="Q72">
+        <v>0.005544731293968008</v>
+      </c>
+      <c r="R72">
+        <v>0.06261444492842141</v>
+      </c>
+      <c r="S72">
+        <v>0.03501113229665835</v>
+      </c>
+      <c r="T72">
+        <v>0.09764522012165823</v>
+      </c>
+      <c r="U72">
+        <v>0.2531169985766257</v>
+      </c>
+      <c r="V72">
+        <v>0.03559093116588843</v>
+      </c>
+      <c r="W72" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72">
+        <v>0.005063100000000986</v>
+      </c>
+      <c r="Y72">
+        <v>26</v>
+      </c>
+      <c r="Z72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.0328811326128999</v>
+      </c>
+      <c r="F73">
+        <v>10.07799745709838</v>
+      </c>
+      <c r="G73">
+        <v>33.73760938254267</v>
+      </c>
+      <c r="H73">
+        <v>7.526251756171</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73">
+        <v>90</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="N73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="O73">
+        <v>22.46923958694043</v>
+      </c>
+      <c r="P73">
+        <v>16.20212449806225</v>
+      </c>
+      <c r="Q73">
+        <v>0.01298893773984043</v>
+      </c>
+      <c r="R73">
+        <v>0.1038521320384561</v>
+      </c>
+      <c r="S73">
+        <v>0.08866582772446316</v>
+      </c>
+      <c r="T73">
+        <v>0.1407695109393282</v>
+      </c>
+      <c r="U73">
+        <v>0.2447978072688838</v>
+      </c>
+      <c r="V73">
+        <v>0.05369275481719101</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73">
+        <v>0.001582999999982349</v>
+      </c>
+      <c r="Y73">
+        <v>8</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9629250912357</v>
+      </c>
+      <c r="F74">
+        <v>9.960817188072712</v>
+      </c>
+      <c r="G74">
+        <v>19.15835371808396</v>
+      </c>
+      <c r="H74">
+        <v>11.34056776494975</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="N74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="O74">
+        <v>15.57454685034647</v>
+      </c>
+      <c r="P74">
+        <v>20.96937413758951</v>
+      </c>
+      <c r="Q74">
+        <v>0.01351481940947104</v>
+      </c>
+      <c r="R74">
+        <v>0.1363150218989539</v>
+      </c>
+      <c r="S74">
+        <v>0.09081673187624671</v>
+      </c>
+      <c r="T74">
+        <v>0.2278348855551799</v>
+      </c>
+      <c r="U74">
+        <v>0.2523133368719759</v>
+      </c>
+      <c r="V74">
+        <v>0.04001356693234884</v>
+      </c>
+      <c r="W74" t="s">
+        <v>26</v>
+      </c>
+      <c r="X74">
+        <v>0.001658000000020365</v>
+      </c>
+      <c r="Y74">
+        <v>8</v>
+      </c>
+      <c r="Z74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.9397652657618</v>
+      </c>
+      <c r="F75">
+        <v>10.28021650618382</v>
+      </c>
+      <c r="G75">
+        <v>115.7306600469841</v>
+      </c>
+      <c r="H75">
+        <v>9.858617169489859</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>25</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="N75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="O75">
+        <v>77.92560972967188</v>
+      </c>
+      <c r="P75">
+        <v>12.08429061166727</v>
+      </c>
+      <c r="Q75">
+        <v>0.01413063052478594</v>
+      </c>
+      <c r="R75">
+        <v>0.2093457521266318</v>
+      </c>
+      <c r="S75">
+        <v>0.267038255363189</v>
+      </c>
+      <c r="T75">
+        <v>0.1289439714158091</v>
+      </c>
+      <c r="U75">
+        <v>0.2276212507203812</v>
+      </c>
+      <c r="V75">
+        <v>0.191747754885792</v>
+      </c>
+      <c r="W75" t="s">
+        <v>26</v>
+      </c>
+      <c r="X75">
+        <v>0.004398600000001807</v>
+      </c>
+      <c r="Y75">
+        <v>22</v>
+      </c>
+      <c r="Z75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.9535522255212</v>
+      </c>
+      <c r="F76">
+        <v>9.99012182096928</v>
+      </c>
+      <c r="G76">
+        <v>36.41297915145649</v>
+      </c>
+      <c r="H76">
+        <v>12.37585874119704</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>90</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="N76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="O76">
+        <v>27.30803822102301</v>
+      </c>
+      <c r="P76">
+        <v>21.74914085256957</v>
+      </c>
+      <c r="Q76">
+        <v>0.01435650951629</v>
+      </c>
+      <c r="R76">
+        <v>0.1326456715649628</v>
+      </c>
+      <c r="S76">
+        <v>0.1528884131108386</v>
+      </c>
+      <c r="T76">
+        <v>0.1779730376360781</v>
+      </c>
+      <c r="U76">
+        <v>0.2276517857738754</v>
+      </c>
+      <c r="V76">
+        <v>0.0165062458273149</v>
+      </c>
+      <c r="W76" t="s">
+        <v>26</v>
+      </c>
+      <c r="X76">
+        <v>0.001838300000002846</v>
+      </c>
+      <c r="Y76">
+        <v>9</v>
+      </c>
+      <c r="Z76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>359.9057077660976</v>
+      </c>
+      <c r="F77">
+        <v>10.12751633408579</v>
+      </c>
+      <c r="G77">
+        <v>102.2165087056952</v>
+      </c>
+      <c r="H77">
+        <v>3.910876942897828</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>25</v>
+      </c>
+      <c r="K77">
+        <v>90</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="N77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="O77">
+        <v>41.37091514400748</v>
+      </c>
+      <c r="P77">
+        <v>8.68557409633765</v>
+      </c>
+      <c r="Q77">
+        <v>0.01168690875703523</v>
+      </c>
+      <c r="R77">
+        <v>0.07592205541845751</v>
+      </c>
+      <c r="S77">
+        <v>0.07596489702154378</v>
+      </c>
+      <c r="T77">
+        <v>0.04344445450561881</v>
+      </c>
+      <c r="U77">
+        <v>0.2397192893803153</v>
+      </c>
+      <c r="V77">
+        <v>0.1513190318207286</v>
+      </c>
+      <c r="W77" t="s">
+        <v>26</v>
+      </c>
+      <c r="X77">
+        <v>0.00210909999998421</v>
+      </c>
+      <c r="Y77">
+        <v>11</v>
+      </c>
+      <c r="Z77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.9598689661444</v>
+      </c>
+      <c r="F78">
+        <v>10.01591440106771</v>
+      </c>
+      <c r="G78">
+        <v>56.09275854278017</v>
+      </c>
+      <c r="H78">
+        <v>12.85396942654139</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>25</v>
+      </c>
+      <c r="K78">
+        <v>90</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="N78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="O78">
+        <v>41.10750888374636</v>
+      </c>
+      <c r="P78">
+        <v>21.24052735909563</v>
+      </c>
+      <c r="Q78">
+        <v>0.01455827985933017</v>
+      </c>
+      <c r="R78">
+        <v>0.1481650007197114</v>
+      </c>
+      <c r="S78">
+        <v>0.2270035481048934</v>
+      </c>
+      <c r="T78">
+        <v>0.1259083346062853</v>
+      </c>
+      <c r="U78">
+        <v>0.2383989924635321</v>
+      </c>
+      <c r="V78">
+        <v>0.03083158114670971</v>
+      </c>
+      <c r="W78" t="s">
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>0.002113399999984722</v>
+      </c>
+      <c r="Y78">
+        <v>9</v>
+      </c>
+      <c r="Z78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>0.0124014510642697</v>
+      </c>
+      <c r="F79">
+        <v>9.90200333917057</v>
+      </c>
+      <c r="G79">
+        <v>165.499968217526</v>
+      </c>
+      <c r="H79">
+        <v>10.57295601887804</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79">
+        <v>90</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="N79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="O79">
+        <v>138.9685963886095</v>
+      </c>
+      <c r="P79">
+        <v>6.625276445704025</v>
+      </c>
+      <c r="Q79">
+        <v>0.00570689656373933</v>
+      </c>
+      <c r="R79">
+        <v>0.07975248098666789</v>
+      </c>
+      <c r="S79">
+        <v>0.0400142983993793</v>
+      </c>
+      <c r="T79">
+        <v>0.1036722565843245</v>
+      </c>
+      <c r="U79">
+        <v>0.2489269626200612</v>
+      </c>
+      <c r="V79">
+        <v>0.05815271131239613</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79">
+        <v>0.004438899999996693</v>
+      </c>
+      <c r="Y79">
+        <v>24</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9399327646418</v>
+      </c>
+      <c r="F80">
+        <v>10.22401012500496</v>
+      </c>
+      <c r="G80">
+        <v>9.053608725287457</v>
+      </c>
+      <c r="H80">
+        <v>11.09540213480945</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="N80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="O80">
+        <v>8.912235848789908</v>
+      </c>
+      <c r="P80">
+        <v>21.00990333267507</v>
+      </c>
+      <c r="Q80">
+        <v>0.01278290749942076</v>
+      </c>
+      <c r="R80">
+        <v>0.178176697995089</v>
+      </c>
+      <c r="S80">
+        <v>0.06358890267778419</v>
+      </c>
+      <c r="T80">
+        <v>0.3072289477374706</v>
+      </c>
+      <c r="U80">
+        <v>0.2510334890485668</v>
+      </c>
+      <c r="V80">
+        <v>0.0667302921975403</v>
+      </c>
+      <c r="W80" t="s">
+        <v>26</v>
+      </c>
+      <c r="X80">
+        <v>0.00141999999999598</v>
+      </c>
+      <c r="Y80">
+        <v>7</v>
+      </c>
+      <c r="Z80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>359.8594074853298</v>
+      </c>
+      <c r="F81">
+        <v>10.04744114514183</v>
+      </c>
+      <c r="G81">
+        <v>89.71882116165047</v>
+      </c>
+      <c r="H81">
+        <v>8.781089635559688</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <v>90</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="N81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="O81">
+        <v>57.36109521631688</v>
+      </c>
+      <c r="P81">
+        <v>13.87385054726748</v>
+      </c>
+      <c r="Q81">
+        <v>0.0134722930552582</v>
+      </c>
+      <c r="R81">
+        <v>0.1388024177924367</v>
+      </c>
+      <c r="S81">
+        <v>0.1904535399353353</v>
+      </c>
+      <c r="T81">
+        <v>0.03736025070184305</v>
+      </c>
+      <c r="U81">
+        <v>0.23608181122831</v>
+      </c>
+      <c r="V81">
+        <v>0.09255311197028809</v>
+      </c>
+      <c r="W81" t="s">
+        <v>26</v>
+      </c>
+      <c r="X81">
+        <v>0.003009099999985665</v>
+      </c>
+      <c r="Y81">
+        <v>15</v>
+      </c>
+      <c r="Z81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.9605861754784</v>
+      </c>
+      <c r="F82">
+        <v>10.15405290510552</v>
+      </c>
+      <c r="G82">
+        <v>94.31509848261268</v>
+      </c>
+      <c r="H82">
+        <v>11.5692787267324</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>90</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="N82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="O82">
+        <v>66.60359106794839</v>
+      </c>
+      <c r="P82">
+        <v>16.35169388485</v>
+      </c>
+      <c r="Q82">
+        <v>0.0142844960010152</v>
+      </c>
+      <c r="R82">
+        <v>0.1928353073550209</v>
+      </c>
+      <c r="S82">
+        <v>0.3046093982030745</v>
+      </c>
+      <c r="T82">
+        <v>0.0554033762454833</v>
+      </c>
+      <c r="U82">
+        <v>0.238537993647772</v>
+      </c>
+      <c r="V82">
+        <v>0.09767694545272364</v>
+      </c>
+      <c r="W82" t="s">
+        <v>26</v>
+      </c>
+      <c r="X82">
+        <v>0.00424499999999739</v>
+      </c>
+      <c r="Y82">
+        <v>18</v>
+      </c>
+      <c r="Z82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.1151475493099239</v>
+      </c>
+      <c r="F83">
+        <v>10.16688666332333</v>
+      </c>
+      <c r="G83">
+        <v>64.88112036635104</v>
+      </c>
+      <c r="H83">
+        <v>7.086079369032579</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>25</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="N83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="O83">
+        <v>38.54036828674038</v>
+      </c>
+      <c r="P83">
+        <v>14.26818058997321</v>
+      </c>
+      <c r="Q83">
+        <v>0.01308980073037733</v>
+      </c>
+      <c r="R83">
+        <v>0.1059583942148932</v>
+      </c>
+      <c r="S83">
+        <v>0.1239428399653678</v>
+      </c>
+      <c r="T83">
+        <v>0.07414742139014618</v>
+      </c>
+      <c r="U83">
+        <v>0.2528598838589424</v>
+      </c>
+      <c r="V83">
+        <v>0.06461103739340539</v>
+      </c>
+      <c r="W83" t="s">
+        <v>26</v>
+      </c>
+      <c r="X83">
+        <v>0.001966200000026674</v>
+      </c>
+      <c r="Y83">
+        <v>9</v>
+      </c>
+      <c r="Z83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.9132486957228</v>
+      </c>
+      <c r="F84">
+        <v>9.961762923068044</v>
+      </c>
+      <c r="G84">
+        <v>49.28344558879191</v>
+      </c>
+      <c r="H84">
+        <v>10.80265208634076</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="N84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="O84">
+        <v>34.79617170326127</v>
+      </c>
+      <c r="P84">
+        <v>19.24225820819687</v>
+      </c>
+      <c r="Q84">
+        <v>0.01400931853081358</v>
+      </c>
+      <c r="R84">
+        <v>0.1259994357983996</v>
+      </c>
+      <c r="S84">
+        <v>0.1638363780805363</v>
+      </c>
+      <c r="T84">
+        <v>0.1251169730508331</v>
+      </c>
+      <c r="U84">
+        <v>0.2694865319843366</v>
+      </c>
+      <c r="V84">
+        <v>0.05339699918784173</v>
+      </c>
+      <c r="W84" t="s">
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>0.00198109999999474</v>
+      </c>
+      <c r="Y84">
+        <v>9</v>
+      </c>
+      <c r="Z84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>0.01054588989881041</v>
+      </c>
+      <c r="F85">
+        <v>9.876395793743937</v>
+      </c>
+      <c r="G85">
+        <v>46.09400776617122</v>
+      </c>
+      <c r="H85">
+        <v>11.02760135334342</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+      <c r="K85">
+        <v>90</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="N85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="O85">
+        <v>33.07888831569387</v>
+      </c>
+      <c r="P85">
+        <v>19.61631585985235</v>
+      </c>
+      <c r="Q85">
+        <v>0.01391907023929259</v>
+      </c>
+      <c r="R85">
+        <v>0.1247911372843473</v>
+      </c>
+      <c r="S85">
+        <v>0.1591714240837148</v>
+      </c>
+      <c r="T85">
+        <v>0.1345608829522735</v>
+      </c>
+      <c r="U85">
+        <v>0.2475012933520689</v>
+      </c>
+      <c r="V85">
+        <v>0.0827267527896636</v>
+      </c>
+      <c r="W85" t="s">
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <v>0.002235799999994015</v>
+      </c>
+      <c r="Y85">
+        <v>9</v>
+      </c>
+      <c r="Z85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.1467179168560035</v>
+      </c>
+      <c r="F86">
+        <v>10.08485161931931</v>
+      </c>
+      <c r="G86">
+        <v>8.07261951651757</v>
+      </c>
+      <c r="H86">
+        <v>7.421096737437656</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <v>90</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="N86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="O86">
+        <v>8.544548633890422</v>
+      </c>
+      <c r="P86">
+        <v>16.46831607895908</v>
+      </c>
+      <c r="Q86">
+        <v>0.01160529544509317</v>
+      </c>
+      <c r="R86">
+        <v>0.1521107397088385</v>
+      </c>
+      <c r="S86">
+        <v>0.04769917457723952</v>
+      </c>
+      <c r="T86">
+        <v>0.2510777732203222</v>
+      </c>
+      <c r="U86">
+        <v>0.2793474989024803</v>
+      </c>
+      <c r="V86">
+        <v>0.03666889964492655</v>
+      </c>
+      <c r="W86" t="s">
+        <v>26</v>
+      </c>
+      <c r="X86">
+        <v>0.001776900000010073</v>
+      </c>
+      <c r="Y86">
+        <v>7</v>
+      </c>
+      <c r="Z86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>0.007634432280631791</v>
+      </c>
+      <c r="F87">
+        <v>10.08521406021395</v>
+      </c>
+      <c r="G87">
+        <v>111.6163114439292</v>
+      </c>
+      <c r="H87">
+        <v>9.226804865610186</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="N87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="O87">
+        <v>73.52841881031858</v>
+      </c>
+      <c r="P87">
+        <v>11.95594266922337</v>
+      </c>
+      <c r="Q87">
+        <v>0.01348264008661456</v>
+      </c>
+      <c r="R87">
+        <v>0.1811276468728087</v>
+      </c>
+      <c r="S87">
+        <v>0.2336856911532937</v>
+      </c>
+      <c r="T87">
+        <v>0.09558097584582075</v>
+      </c>
+      <c r="U87">
+        <v>0.2550954428172274</v>
+      </c>
+      <c r="V87">
+        <v>0.05514431522748991</v>
+      </c>
+      <c r="W87" t="s">
+        <v>26</v>
+      </c>
+      <c r="X87">
+        <v>0.004088099999989936</v>
+      </c>
+      <c r="Y87">
+        <v>22</v>
+      </c>
+      <c r="Z87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>359.9877683884662</v>
+      </c>
+      <c r="F88">
+        <v>10.01328738294306</v>
+      </c>
+      <c r="G88">
+        <v>36.87790759926398</v>
+      </c>
+      <c r="H88">
+        <v>5.393647637393885</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88">
+        <v>90</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="N88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="O88">
+        <v>21.89073049981292</v>
+      </c>
+      <c r="P88">
+        <v>13.55138456129583</v>
+      </c>
+      <c r="Q88">
+        <v>0.01216995053702075</v>
+      </c>
+      <c r="R88">
+        <v>0.08970440858907899</v>
+      </c>
+      <c r="S88">
+        <v>0.07060222832334602</v>
+      </c>
+      <c r="T88">
+        <v>0.1204884632868654</v>
+      </c>
+      <c r="U88">
+        <v>0.2533196530981425</v>
+      </c>
+      <c r="V88">
+        <v>0.07546087279092943</v>
+      </c>
+      <c r="W88" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>0.001619900000008556</v>
+      </c>
+      <c r="Y88">
+        <v>8</v>
+      </c>
+      <c r="Z88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>0.1083045240801132</v>
+      </c>
+      <c r="F89">
+        <v>9.479780928877346</v>
+      </c>
+      <c r="G89">
+        <v>118.04196758179</v>
+      </c>
+      <c r="H89">
+        <v>13.47158749594857</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+      <c r="K89">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="N89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="O89">
+        <v>92.72802117733035</v>
+      </c>
+      <c r="P89">
+        <v>15.47399392761832</v>
+      </c>
+      <c r="Q89">
+        <v>0.01277760372028605</v>
+      </c>
+      <c r="R89">
+        <v>0.2653311415634186</v>
+      </c>
+      <c r="S89">
+        <v>0.4334938292649332</v>
+      </c>
+      <c r="T89">
+        <v>0.2458425990190599</v>
+      </c>
+      <c r="U89">
+        <v>0.2510028890451469</v>
+      </c>
+      <c r="V89">
+        <v>0.2853355922593973</v>
+      </c>
+      <c r="W89" t="s">
+        <v>27</v>
+      </c>
+      <c r="X89">
+        <v>0.004572600000017246</v>
+      </c>
+      <c r="Y89">
+        <v>23</v>
+      </c>
+      <c r="Z89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9769606363432</v>
+      </c>
+      <c r="F90">
+        <v>10.25825020636839</v>
+      </c>
+      <c r="G90">
+        <v>116.572609163206</v>
+      </c>
+      <c r="H90">
+        <v>9.419387937130862</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="N90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="O90">
+        <v>77.08493809973112</v>
+      </c>
+      <c r="P90">
+        <v>11.56825866047493</v>
+      </c>
+      <c r="Q90">
+        <v>0.01385549570755306</v>
+      </c>
+      <c r="R90">
+        <v>0.1987874255521666</v>
+      </c>
+      <c r="S90">
+        <v>0.2465366803146429</v>
+      </c>
+      <c r="T90">
+        <v>0.1206705426351956</v>
+      </c>
+      <c r="U90">
+        <v>0.2490648892013976</v>
+      </c>
+      <c r="V90">
+        <v>0.1507912166857671</v>
+      </c>
+      <c r="W90" t="s">
+        <v>26</v>
+      </c>
+      <c r="X90">
+        <v>0.004047900000017535</v>
+      </c>
+      <c r="Y90">
+        <v>22</v>
+      </c>
+      <c r="Z90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.1090646358745518</v>
+      </c>
+      <c r="F91">
+        <v>10.00597843574605</v>
+      </c>
+      <c r="G91">
+        <v>90.38502080017659</v>
+      </c>
+      <c r="H91">
+        <v>6.002502853552342</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>25</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="N91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="O91">
+        <v>48.822211807282</v>
+      </c>
+      <c r="P91">
+        <v>11.15009153268531</v>
+      </c>
+      <c r="Q91">
+        <v>0.01234115316016079</v>
+      </c>
+      <c r="R91">
+        <v>0.1010226555456232</v>
+      </c>
+      <c r="S91">
+        <v>0.1175259980408443</v>
+      </c>
+      <c r="T91">
+        <v>0.03974255314897999</v>
+      </c>
+      <c r="U91">
+        <v>0.2598986123253976</v>
+      </c>
+      <c r="V91">
+        <v>0.05719352046111825</v>
+      </c>
+      <c r="W91" t="s">
+        <v>26</v>
+      </c>
+      <c r="X91">
+        <v>0.002266899999995076</v>
+      </c>
+      <c r="Y91">
+        <v>12</v>
+      </c>
+      <c r="Z91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>359.9535021315863</v>
+      </c>
+      <c r="F92">
+        <v>9.860677420095328</v>
+      </c>
+      <c r="G92">
+        <v>26.84846100581676</v>
+      </c>
+      <c r="H92">
+        <v>4.990999520015623</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>25</v>
+      </c>
+      <c r="K92">
+        <v>90</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="N92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="O92">
+        <v>17.07847571549534</v>
+      </c>
+      <c r="P92">
+        <v>13.16859017838231</v>
+      </c>
+      <c r="Q92">
+        <v>0.01151920828264184</v>
+      </c>
+      <c r="R92">
+        <v>0.09156755796908081</v>
+      </c>
+      <c r="S92">
+        <v>0.05678615404448958</v>
+      </c>
+      <c r="T92">
+        <v>0.1381152834290396</v>
+      </c>
+      <c r="U92">
+        <v>0.2678423170572334</v>
+      </c>
+      <c r="V92">
+        <v>0.08765010234014911</v>
+      </c>
+      <c r="W92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X92">
+        <v>0.001712900000001127</v>
+      </c>
+      <c r="Y92">
+        <v>8</v>
+      </c>
+      <c r="Z92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>359.9222034759364</v>
+      </c>
+      <c r="F93">
+        <v>9.917257177240051</v>
+      </c>
+      <c r="G93">
+        <v>36.10792407573129</v>
+      </c>
+      <c r="H93">
+        <v>6.917139000684407</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25</v>
+      </c>
+      <c r="K93">
+        <v>90</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="N93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="O93">
+        <v>23.35594308747141</v>
+      </c>
+      <c r="P93">
+        <v>15.25715872074202</v>
+      </c>
+      <c r="Q93">
+        <v>0.01261918875909649</v>
+      </c>
+      <c r="R93">
+        <v>0.09702652648252083</v>
+      </c>
+      <c r="S93">
+        <v>0.08453531154438676</v>
+      </c>
+      <c r="T93">
+        <v>0.1276329527535071</v>
+      </c>
+      <c r="U93">
+        <v>0.2351662572647224</v>
+      </c>
+      <c r="V93">
+        <v>0.02727469521104296</v>
+      </c>
+      <c r="W93" t="s">
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>0.001630500000004531</v>
+      </c>
+      <c r="Y93">
+        <v>8</v>
+      </c>
+      <c r="Z93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>0.02433651308142631</v>
+      </c>
+      <c r="F94">
+        <v>10.08292940920285</v>
+      </c>
+      <c r="G94">
+        <v>159.4980138450729</v>
+      </c>
+      <c r="H94">
+        <v>12.58202214537361</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="N94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="O94">
+        <v>135.9275800867793</v>
+      </c>
+      <c r="P94">
+        <v>9.291423023954051</v>
+      </c>
+      <c r="Q94">
+        <v>0.006301976309229815</v>
+      </c>
+      <c r="R94">
+        <v>0.08945930608135477</v>
+      </c>
+      <c r="S94">
+        <v>0.06099114126745143</v>
+      </c>
+      <c r="T94">
+        <v>0.1274964897737104</v>
+      </c>
+      <c r="U94">
+        <v>0.2231385709829255</v>
+      </c>
+      <c r="V94">
+        <v>0.04659947158963411</v>
+      </c>
+      <c r="W94" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94">
+        <v>0.004406599999981609</v>
+      </c>
+      <c r="Y94">
+        <v>24</v>
+      </c>
+      <c r="Z94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.9557240428117</v>
+      </c>
+      <c r="F95">
+        <v>9.996063721209355</v>
+      </c>
+      <c r="G95">
+        <v>109.1050158067925</v>
+      </c>
+      <c r="H95">
+        <v>10.90503071856745</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>25</v>
+      </c>
+      <c r="K95">
+        <v>90</v>
+      </c>
+      <c r="L95">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="N95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="O95">
+        <v>77.10681434761888</v>
+      </c>
+      <c r="P95">
+        <v>13.87788381229556</v>
+      </c>
+      <c r="Q95">
+        <v>0.01408601191303249</v>
+      </c>
+      <c r="R95">
+        <v>0.2159100978711999</v>
+      </c>
+      <c r="S95">
+        <v>0.3127946590949523</v>
+      </c>
+      <c r="T95">
+        <v>0.1219055746189367</v>
+      </c>
+      <c r="U95">
+        <v>0.2254450021909445</v>
+      </c>
+      <c r="V95">
+        <v>0.009985902500572783</v>
+      </c>
+      <c r="W95" t="s">
+        <v>26</v>
+      </c>
+      <c r="X95">
+        <v>0.004170799999997143</v>
+      </c>
+      <c r="Y95">
+        <v>22</v>
+      </c>
+      <c r="Z95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.9941190261844</v>
+      </c>
+      <c r="F96">
+        <v>9.96108170965322</v>
+      </c>
+      <c r="G96">
+        <v>129.3847122770379</v>
+      </c>
+      <c r="H96">
+        <v>10.24321907370765</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>25</v>
+      </c>
+      <c r="K96">
+        <v>90</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="N96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="O96">
+        <v>92.44056399480266</v>
+      </c>
+      <c r="P96">
+        <v>10.67953532683042</v>
+      </c>
+      <c r="Q96">
+        <v>0.01350800916389261</v>
+      </c>
+      <c r="R96">
+        <v>0.2549335417935079</v>
+      </c>
+      <c r="S96">
+        <v>0.2954256392231301</v>
+      </c>
+      <c r="T96">
+        <v>0.2283951234040255</v>
+      </c>
+      <c r="U96">
+        <v>0.2493709508933372</v>
+      </c>
+      <c r="V96">
+        <v>0.03138878143562064</v>
+      </c>
+      <c r="W96" t="s">
+        <v>26</v>
+      </c>
+      <c r="X96">
+        <v>0.004178999999993493</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>359.9749103107226</v>
+      </c>
+      <c r="F97">
+        <v>9.996999318558414</v>
+      </c>
+      <c r="G97">
+        <v>41.06801313924498</v>
+      </c>
+      <c r="H97">
+        <v>5.327515867769058</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>25</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="N97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="O97">
+        <v>23.74070880037097</v>
+      </c>
+      <c r="P97">
+        <v>13.32842034920339</v>
+      </c>
+      <c r="Q97">
+        <v>0.01220015327273566</v>
+      </c>
+      <c r="R97">
+        <v>0.08786942988606129</v>
+      </c>
+      <c r="S97">
+        <v>0.07372612599553285</v>
+      </c>
+      <c r="T97">
+        <v>0.1114879581755882</v>
+      </c>
+      <c r="U97">
+        <v>0.235993712492996</v>
+      </c>
+      <c r="V97">
+        <v>0.02821500350576842</v>
+      </c>
+      <c r="W97" t="s">
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <v>0.00167089999999348</v>
+      </c>
+      <c r="Y97">
+        <v>8</v>
+      </c>
+      <c r="Z97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>0.1276028446928074</v>
+      </c>
+      <c r="F98">
+        <v>10.0032040929008</v>
+      </c>
+      <c r="G98">
+        <v>38.74799163788681</v>
+      </c>
+      <c r="H98">
+        <v>13.64627833601886</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>25</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="N98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="O98">
+        <v>29.579933673418</v>
+      </c>
+      <c r="P98">
+        <v>23.17919488303481</v>
+      </c>
+      <c r="Q98">
+        <v>0.01467839756377522</v>
+      </c>
+      <c r="R98">
+        <v>0.1422660982545974</v>
+      </c>
+      <c r="S98">
+        <v>0.180799790221159</v>
+      </c>
+      <c r="T98">
+        <v>0.1882612294909268</v>
+      </c>
+      <c r="U98">
+        <v>0.2418970288884255</v>
+      </c>
+      <c r="V98">
+        <v>0.07464083315522684</v>
+      </c>
+      <c r="W98" t="s">
+        <v>26</v>
+      </c>
+      <c r="X98">
+        <v>0.001901299999985895</v>
+      </c>
+      <c r="Y98">
+        <v>9</v>
+      </c>
+      <c r="Z98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.03173510856486372</v>
+      </c>
+      <c r="F99">
+        <v>10.178568001829</v>
+      </c>
+      <c r="G99">
+        <v>150.5917769706776</v>
+      </c>
+      <c r="H99">
+        <v>14.95293187686457</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="N99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="O99">
+        <v>128.9374369159664</v>
+      </c>
+      <c r="P99">
+        <v>12.83936273839521</v>
+      </c>
+      <c r="Q99">
+        <v>0.007368775846884319</v>
+      </c>
+      <c r="R99">
+        <v>0.1136482659851356</v>
+      </c>
+      <c r="S99">
+        <v>0.1127580629040484</v>
+      </c>
+      <c r="T99">
+        <v>0.1747633913672271</v>
+      </c>
+      <c r="U99">
+        <v>0.2447587752363296</v>
+      </c>
+      <c r="V99">
+        <v>0.1114430705819651</v>
+      </c>
+      <c r="W99" t="s">
+        <v>26</v>
+      </c>
+      <c r="X99">
+        <v>0.004233900000002677</v>
+      </c>
+      <c r="Y99">
+        <v>24</v>
+      </c>
+      <c r="Z99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>0.1099805317199187</v>
+      </c>
+      <c r="F100">
+        <v>9.772035147748952</v>
+      </c>
+      <c r="G100">
+        <v>132.0048032262298</v>
+      </c>
+      <c r="H100">
+        <v>9.467363019481942</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100">
+        <v>90</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="N100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="O100">
+        <v>92.65687177900487</v>
+      </c>
+      <c r="P100">
+        <v>9.641685008416955</v>
+      </c>
+      <c r="Q100">
+        <v>0.01283141928271728</v>
+      </c>
+      <c r="R100">
+        <v>0.2391232698948614</v>
+      </c>
+      <c r="S100">
+        <v>0.2613256628008764</v>
+      </c>
+      <c r="T100">
+        <v>0.214302126205679</v>
+      </c>
+      <c r="U100">
+        <v>0.2738499480322046</v>
+      </c>
+      <c r="V100">
+        <v>0.1437915658086449</v>
+      </c>
+      <c r="W100" t="s">
+        <v>26</v>
+      </c>
+      <c r="X100">
+        <v>0.004779100000007475</v>
+      </c>
+      <c r="Y100">
+        <v>26</v>
+      </c>
+      <c r="Z100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>359.9524355607363</v>
+      </c>
+      <c r="F101">
+        <v>10.07894977978517</v>
+      </c>
+      <c r="G101">
+        <v>120.9737347114673</v>
+      </c>
+      <c r="H101">
+        <v>8.965405780343433</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="N101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="O101">
+        <v>79.49591039915518</v>
+      </c>
+      <c r="P101">
+        <v>10.56347315668146</v>
+      </c>
+      <c r="Q101">
+        <v>0.01363672470224442</v>
+      </c>
+      <c r="R101">
+        <v>0.1952708826266568</v>
+      </c>
+      <c r="S101">
+        <v>0.2308232879180432</v>
+      </c>
+      <c r="T101">
+        <v>0.12956430879784</v>
+      </c>
+      <c r="U101">
+        <v>0.2432353676970119</v>
+      </c>
+      <c r="V101">
+        <v>0.05150785028037532</v>
+      </c>
+      <c r="W101" t="s">
+        <v>26</v>
+      </c>
+      <c r="X101">
+        <v>0.003918099999992819</v>
+      </c>
+      <c r="Y101">
+        <v>22</v>
+      </c>
+      <c r="Z101">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
